--- a/server/resource/Tests.xlsx
+++ b/server/resource/Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A19DFD1-AEA7-4001-BDCC-AF8A901F55CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ABC4E2-5DC9-4F18-A191-9B8157357B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="38">
   <si>
     <t># avg</t>
   </si>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -958,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
@@ -5565,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,6 +8667,918 @@
       <c r="V49" s="10">
         <f>AVERAGE(V46:V48)</f>
         <v>0.59627226391602306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="5">
+        <v>37</v>
+      </c>
+      <c r="C50" s="16">
+        <v>500</v>
+      </c>
+      <c r="D50" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="16">
+        <v>1</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="16">
+        <v>1</v>
+      </c>
+      <c r="M50" s="19">
+        <v>2</v>
+      </c>
+      <c r="N50" s="21">
+        <v>12</v>
+      </c>
+      <c r="O50" s="21">
+        <v>5</v>
+      </c>
+      <c r="P50" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="5" t="e">
+        <f>(T50-U50)/(S50-R50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="5">
+        <v>38</v>
+      </c>
+      <c r="C51" s="16">
+        <v>500</v>
+      </c>
+      <c r="D51" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="16">
+        <v>1</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="16">
+        <v>1</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="16">
+        <v>1</v>
+      </c>
+      <c r="M51" s="19">
+        <v>2</v>
+      </c>
+      <c r="N51" s="21">
+        <v>12</v>
+      </c>
+      <c r="O51" s="21">
+        <v>5</v>
+      </c>
+      <c r="P51" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5" t="e">
+        <f>(T51-U51)/(S51-R51)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="5">
+        <v>39</v>
+      </c>
+      <c r="C52" s="16">
+        <v>500</v>
+      </c>
+      <c r="D52" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="16">
+        <v>1</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="16">
+        <v>1</v>
+      </c>
+      <c r="M52" s="19">
+        <v>2</v>
+      </c>
+      <c r="N52" s="21">
+        <v>12</v>
+      </c>
+      <c r="O52" s="21">
+        <v>5</v>
+      </c>
+      <c r="P52" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5" t="e">
+        <f>(T52-U52)/(S52-R52)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="20">
+        <v>13</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="16">
+        <v>500</v>
+      </c>
+      <c r="D53" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="16">
+        <v>1</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="16">
+        <v>1</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="16">
+        <v>1</v>
+      </c>
+      <c r="M53" s="19">
+        <v>2</v>
+      </c>
+      <c r="N53" s="21">
+        <v>12</v>
+      </c>
+      <c r="O53" s="21">
+        <v>5</v>
+      </c>
+      <c r="P53" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S53" s="10">
+        <v>1906.0826669999999</v>
+      </c>
+      <c r="T53" s="10">
+        <v>1146.666667</v>
+      </c>
+      <c r="U53" s="10">
+        <v>11</v>
+      </c>
+      <c r="V53" s="10" t="e">
+        <f>AVERAGE(V50:V52)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="5">
+        <v>40</v>
+      </c>
+      <c r="C54" s="16">
+        <v>500</v>
+      </c>
+      <c r="D54" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1</v>
+      </c>
+      <c r="M54" s="16">
+        <v>2</v>
+      </c>
+      <c r="N54" s="21">
+        <v>12</v>
+      </c>
+      <c r="O54" s="21">
+        <v>5</v>
+      </c>
+      <c r="P54" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="5" t="e">
+        <f>(T54-U54)/(S54-R54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="5">
+        <v>41</v>
+      </c>
+      <c r="C55" s="16">
+        <v>500</v>
+      </c>
+      <c r="D55" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="16">
+        <v>1</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="16">
+        <v>1</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="L55" s="16">
+        <v>1</v>
+      </c>
+      <c r="M55" s="16">
+        <v>2</v>
+      </c>
+      <c r="N55" s="21">
+        <v>12</v>
+      </c>
+      <c r="O55" s="21">
+        <v>5</v>
+      </c>
+      <c r="P55" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5" t="e">
+        <f>(T55-U55)/(S55-R55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="5">
+        <v>42</v>
+      </c>
+      <c r="C56" s="16">
+        <v>500</v>
+      </c>
+      <c r="D56" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="16">
+        <v>1</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="16">
+        <v>1</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="L56" s="16">
+        <v>1</v>
+      </c>
+      <c r="M56" s="16">
+        <v>2</v>
+      </c>
+      <c r="N56" s="21">
+        <v>12</v>
+      </c>
+      <c r="O56" s="21">
+        <v>5</v>
+      </c>
+      <c r="P56" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5" t="e">
+        <f>(T56-U56)/(S56-R56)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="20">
+        <v>14</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="16">
+        <v>500</v>
+      </c>
+      <c r="D57" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="16">
+        <v>1</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="16">
+        <v>1</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="L57" s="16">
+        <v>1</v>
+      </c>
+      <c r="M57" s="16">
+        <v>2</v>
+      </c>
+      <c r="N57" s="21">
+        <v>12</v>
+      </c>
+      <c r="O57" s="21">
+        <v>5</v>
+      </c>
+      <c r="P57" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1906.0826669999999</v>
+      </c>
+      <c r="T57" s="10">
+        <v>1146.666667</v>
+      </c>
+      <c r="U57" s="10">
+        <v>11</v>
+      </c>
+      <c r="V57" s="10" t="e">
+        <f>AVERAGE(V54:V56)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="5">
+        <v>43</v>
+      </c>
+      <c r="C58" s="16">
+        <v>500</v>
+      </c>
+      <c r="D58" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="16">
+        <v>1</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I58" s="16">
+        <v>1</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L58" s="16">
+        <v>1</v>
+      </c>
+      <c r="M58" s="16">
+        <v>2</v>
+      </c>
+      <c r="N58" s="21">
+        <v>12</v>
+      </c>
+      <c r="O58" s="21">
+        <v>5</v>
+      </c>
+      <c r="P58" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="5" t="e">
+        <f>(T58-U58)/(S58-R58)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="5">
+        <v>44</v>
+      </c>
+      <c r="C59" s="16">
+        <v>500</v>
+      </c>
+      <c r="D59" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I59" s="16">
+        <v>1</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L59" s="16">
+        <v>1</v>
+      </c>
+      <c r="M59" s="16">
+        <v>2</v>
+      </c>
+      <c r="N59" s="21">
+        <v>12</v>
+      </c>
+      <c r="O59" s="21">
+        <v>5</v>
+      </c>
+      <c r="P59" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5" t="e">
+        <f>(T59-U59)/(S59-R59)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="5">
+        <v>45</v>
+      </c>
+      <c r="C60" s="16">
+        <v>500</v>
+      </c>
+      <c r="D60" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I60" s="16">
+        <v>1</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L60" s="16">
+        <v>1</v>
+      </c>
+      <c r="M60" s="16">
+        <v>2</v>
+      </c>
+      <c r="N60" s="21">
+        <v>12</v>
+      </c>
+      <c r="O60" s="21">
+        <v>5</v>
+      </c>
+      <c r="P60" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5" t="e">
+        <f>(T60-U60)/(S60-R60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="20">
+        <v>15</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="16">
+        <v>500</v>
+      </c>
+      <c r="D61" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="16">
+        <v>1</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I61" s="16">
+        <v>1</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L61" s="16">
+        <v>1</v>
+      </c>
+      <c r="M61" s="16">
+        <v>2</v>
+      </c>
+      <c r="N61" s="21">
+        <v>12</v>
+      </c>
+      <c r="O61" s="21">
+        <v>5</v>
+      </c>
+      <c r="P61" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R61" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S61" s="10">
+        <v>1906.0826669999999</v>
+      </c>
+      <c r="T61" s="10">
+        <v>1146.666667</v>
+      </c>
+      <c r="U61" s="10">
+        <v>11</v>
+      </c>
+      <c r="V61" s="10" t="e">
+        <f>AVERAGE(V58:V60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="5">
+        <v>46</v>
+      </c>
+      <c r="C62" s="16">
+        <v>500</v>
+      </c>
+      <c r="D62" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="F62" s="16">
+        <v>1</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I62" s="16">
+        <v>1</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L62" s="16">
+        <v>1</v>
+      </c>
+      <c r="M62" s="16">
+        <v>2</v>
+      </c>
+      <c r="N62" s="21">
+        <v>12</v>
+      </c>
+      <c r="O62" s="21">
+        <v>5</v>
+      </c>
+      <c r="P62" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="5" t="e">
+        <f>(T62-U62)/(S62-R62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="5">
+        <v>47</v>
+      </c>
+      <c r="C63" s="16">
+        <v>500</v>
+      </c>
+      <c r="D63" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I63" s="16">
+        <v>1</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L63" s="16">
+        <v>1</v>
+      </c>
+      <c r="M63" s="16">
+        <v>2</v>
+      </c>
+      <c r="N63" s="21">
+        <v>12</v>
+      </c>
+      <c r="O63" s="21">
+        <v>5</v>
+      </c>
+      <c r="P63" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5" t="e">
+        <f>(T63-U63)/(S63-R63)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="5">
+        <v>48</v>
+      </c>
+      <c r="C64" s="16">
+        <v>500</v>
+      </c>
+      <c r="D64" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="16">
+        <v>1</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I64" s="16">
+        <v>1</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L64" s="16">
+        <v>1</v>
+      </c>
+      <c r="M64" s="16">
+        <v>2</v>
+      </c>
+      <c r="N64" s="21">
+        <v>12</v>
+      </c>
+      <c r="O64" s="21">
+        <v>5</v>
+      </c>
+      <c r="P64" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5" t="e">
+        <f>(T64-U64)/(S64-R64)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="20">
+        <v>16</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="16">
+        <v>500</v>
+      </c>
+      <c r="D65" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="F65" s="16">
+        <v>1</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I65" s="16">
+        <v>1</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L65" s="16">
+        <v>1</v>
+      </c>
+      <c r="M65" s="16">
+        <v>2</v>
+      </c>
+      <c r="N65" s="21">
+        <v>12</v>
+      </c>
+      <c r="O65" s="21">
+        <v>5</v>
+      </c>
+      <c r="P65" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R65" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S65" s="10">
+        <v>1906.0826669999999</v>
+      </c>
+      <c r="T65" s="10">
+        <v>1146.666667</v>
+      </c>
+      <c r="U65" s="10">
+        <v>11</v>
+      </c>
+      <c r="V65" s="10" t="e">
+        <f>AVERAGE(V62:V64)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -8679,7 +9592,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9684,7 +10597,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9693,7 +10606,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/resource/Tests.xlsx
+++ b/server/resource/Tests.xlsx
@@ -1,32 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ABC4E2-5DC9-4F18-A191-9B8157357B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
-    <sheet name="Island Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Simulated Annealing" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabu Search" sheetId="4" r:id="rId4"/>
+    <sheet sheetId="1" name="Genetic Algorithm" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Island Model" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Simulated Annealing" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Tabu Search" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -45,11 +31,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>p</t>
     </r>
@@ -61,11 +47,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>g</t>
     </r>
@@ -77,11 +63,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>e</t>
     </r>
@@ -93,11 +79,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>c</t>
     </r>
@@ -109,11 +95,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>k</t>
     </r>
@@ -125,21 +111,21 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>c</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -151,11 +137,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -167,21 +153,21 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>mg</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -193,11 +179,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -209,11 +195,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>s</t>
     </r>
@@ -225,11 +211,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>i</t>
     </r>
@@ -241,11 +227,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>s</t>
     </r>
@@ -257,11 +243,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>f</t>
     </r>
@@ -273,11 +259,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>s</t>
     </r>
@@ -289,11 +275,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>f</t>
     </r>
@@ -332,11 +318,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>i</t>
     </r>
@@ -348,11 +334,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -364,11 +350,11 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>it</t>
     </r>
@@ -380,21 +366,21 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>mig</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -421,21 +407,21 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -447,21 +433,21 @@
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>tl</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="1"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -473,49 +459,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <family val="1"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -621,7 +599,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
@@ -978,11 +956,10 @@
     <col min="25" max="25" width="10.140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="1" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="24" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -1073,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="6">
-        <v>1.0549999999999999</v>
+        <v>1.055</v>
       </c>
       <c r="O2" s="6">
-        <v>1756.8050000000001</v>
+        <v>1756.805</v>
       </c>
       <c r="P2" s="6">
         <v>1112</v>
@@ -1086,10 +1063,10 @@
       </c>
       <c r="R2" s="5">
         <f>(P2-Q2)/(O2-N2)</f>
-        <v>0.61626085718353985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6162608571835398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -1124,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>0.95199999999999996</v>
+        <v>0.952</v>
       </c>
       <c r="O3" s="5">
         <v>2243.348</v>
@@ -1137,10 +1114,10 @@
       </c>
       <c r="R3" s="5">
         <f>(P3-Q3)/(O3-N3)</f>
-        <v>0.50303336252829567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5030333625282957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -1175,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="5">
-        <v>0.94299999999999995</v>
+        <v>0.943</v>
       </c>
       <c r="O4" s="5">
         <v>1811.941</v>
@@ -1188,10 +1165,10 @@
       </c>
       <c r="R4" s="5">
         <f>(P4-Q4)/(O4-N4)</f>
-        <v>0.61292171498808945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6129217149880894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1227,7 +1204,7 @@
       </c>
       <c r="N5" s="9">
         <f>AVERAGE(N2:N4)</f>
-        <v>0.98333333333333328</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="O5" s="10">
         <f>AVERAGE(O2:O4)</f>
@@ -1243,10 +1220,10 @@
       </c>
       <c r="R5" s="10">
         <f>AVERAGE(R2:R4)</f>
-        <v>0.57740531156664165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5774053115666417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>4</v>
@@ -1281,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="11">
-        <v>0.96099999999999997</v>
+        <v>0.961</v>
       </c>
       <c r="O6" s="12">
         <v>1779.066</v>
@@ -1297,7 +1274,7 @@
         <v>0.6501303353851432</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>5</v>
@@ -1332,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="11">
-        <v>0.94299999999999995</v>
+        <v>0.943</v>
       </c>
       <c r="O7" s="12">
-        <v>1873.2950000000001</v>
+        <v>1873.295</v>
       </c>
       <c r="P7" s="12">
         <v>1148</v>
@@ -1345,10 +1322,10 @@
       </c>
       <c r="R7" s="5">
         <f>(P7-Q7)/(O7-N7)</f>
-        <v>0.60084855839072993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6008485583907299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>6</v>
@@ -1396,10 +1373,10 @@
       </c>
       <c r="R8" s="5">
         <f>(P8-Q8)/(O8-N8)</f>
-        <v>0.58704846014088108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5870484601408811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -1435,7 +1412,7 @@
       </c>
       <c r="N9" s="9">
         <f>AVERAGE(N6:N8)</f>
-        <v>0.96799999999999997</v>
+        <v>0.968</v>
       </c>
       <c r="O9" s="10">
         <f>AVERAGE(O6:O8)</f>
@@ -1451,10 +1428,10 @@
       </c>
       <c r="R9" s="10">
         <f>AVERAGE(R6:R8)</f>
-        <v>0.61267578463891814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6126757846389181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>7</v>
@@ -1489,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="N10" s="5">
-        <v>1.0309999999999999</v>
+        <v>1.031</v>
       </c>
       <c r="O10" s="5">
-        <v>1887.1030000000001</v>
+        <v>1887.103</v>
       </c>
       <c r="P10" s="5">
         <v>1169</v>
@@ -1502,10 +1479,10 @@
       </c>
       <c r="R10" s="5">
         <f>(P10-Q10)/(O10-N10)</f>
-        <v>0.56095419474972319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5609541947497232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>8</v>
@@ -1540,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <v>0.96399999999999997</v>
+        <v>0.964</v>
       </c>
       <c r="O11" s="5">
-        <v>1897.2840000000001</v>
+        <v>1897.284</v>
       </c>
       <c r="P11" s="5">
         <v>1155</v>
@@ -1553,10 +1530,10 @@
       </c>
       <c r="R11" s="5">
         <f>(P11-Q11)/(O11-N11)</f>
-        <v>0.54737597030037122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5473759703003712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>9</v>
@@ -1591,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <v>0.94699999999999995</v>
+        <v>0.947</v>
       </c>
       <c r="O12" s="5">
-        <v>1870.1990000000001</v>
+        <v>1870.199</v>
       </c>
       <c r="P12" s="5">
         <v>1120</v>
@@ -1604,10 +1581,10 @@
       </c>
       <c r="R12" s="5">
         <f>(P12-Q12)/(O12-N12)</f>
-        <v>0.53015858749917077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5301585874991708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -1643,11 +1620,11 @@
       </c>
       <c r="N13" s="10">
         <f>AVERAGE(N10:N12)</f>
-        <v>0.98066666666666658</v>
+        <v>0.9806666666666666</v>
       </c>
       <c r="O13" s="10">
         <f>AVERAGE(O10:O12)</f>
-        <v>1884.8620000000001</v>
+        <v>1884.862</v>
       </c>
       <c r="P13" s="10">
         <f>AVERAGE(P10:P12)</f>
@@ -1659,10 +1636,10 @@
       </c>
       <c r="R13" s="10">
         <f>AVERAGE(R10:R12)</f>
-        <v>0.54616291751642176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5461629175164218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>10</v>
@@ -1699,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="5">
-        <v>0.95499999999999996</v>
+        <v>0.955</v>
       </c>
       <c r="O14" s="5">
         <v>1792.713</v>
@@ -1712,10 +1689,10 @@
       </c>
       <c r="R14" s="5">
         <f>(P14-Q14)/(O14-N14)</f>
-        <v>0.62620063646988045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6262006364698804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>11</v>
@@ -1752,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="5">
-        <v>0.93200000000000005</v>
+        <v>0.932</v>
       </c>
       <c r="O15" s="5">
-        <v>1841.0909999999999</v>
+        <v>1841.091</v>
       </c>
       <c r="P15" s="5">
         <v>1165</v>
@@ -1765,10 +1742,10 @@
       </c>
       <c r="R15" s="5">
         <f>(P15-Q15)/(O15-N15)</f>
-        <v>0.58962296192883334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5896229619288333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>12</v>
@@ -1808,7 +1785,7 @@
         <v>1.085</v>
       </c>
       <c r="O16" s="5">
-        <v>1888.3230000000001</v>
+        <v>1888.323</v>
       </c>
       <c r="P16" s="5">
         <v>1196</v>
@@ -1818,10 +1795,10 @@
       </c>
       <c r="R16" s="5">
         <f>(P16-Q16)/(O16-N16)</f>
-        <v>0.58498186238301686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5849818623830169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -1863,7 +1840,7 @@
       </c>
       <c r="O17" s="10">
         <f>AVERAGE(O14:O16)</f>
-        <v>1840.7090000000001</v>
+        <v>1840.709</v>
       </c>
       <c r="P17" s="10">
         <f>AVERAGE(P14:P16)</f>
@@ -1875,10 +1852,10 @@
       </c>
       <c r="R17" s="10">
         <f>AVERAGE(R14:R16)</f>
-        <v>0.60026848692724355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6002684869272435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>13</v>
@@ -1915,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="5">
-        <v>0.97299999999999998</v>
+        <v>0.973</v>
       </c>
       <c r="O18" s="5">
         <v>1857.568</v>
@@ -1928,10 +1905,10 @@
       </c>
       <c r="R18" s="5">
         <f>(P18-Q18)/(O18-N18)</f>
-        <v>0.58494178859686685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5849417885968669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>14</v>
@@ -1968,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="5">
-        <v>0.97099999999999997</v>
+        <v>0.971</v>
       </c>
       <c r="O19" s="5">
         <v>1852.181</v>
@@ -1984,7 +1961,7 @@
         <v>0.5796208966027625</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>15</v>
@@ -2021,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="5">
-        <v>0.94899999999999995</v>
+        <v>0.949</v>
       </c>
       <c r="O20" s="5">
         <v>1886.702</v>
@@ -2034,10 +2011,10 @@
       </c>
       <c r="R20" s="5">
         <f>(P20-Q20)/(O20-N20)</f>
-        <v>0.57960931256638593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5796093125663859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>5</v>
       </c>
@@ -2075,7 +2052,7 @@
       </c>
       <c r="N21" s="10">
         <f>AVERAGE(N18:N20)</f>
-        <v>0.96433333333333326</v>
+        <v>0.9643333333333333</v>
       </c>
       <c r="O21" s="10">
         <f>AVERAGE(O18:O20)</f>
@@ -2087,14 +2064,14 @@
       </c>
       <c r="Q21" s="10">
         <f>AVERAGE(Q18:Q20)</f>
-        <v>80.333333333333329</v>
+        <v>80.33333333333333</v>
       </c>
       <c r="R21" s="10">
         <f>AVERAGE(R18:R20)</f>
-        <v>0.58139066592200506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5813906659220051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>16</v>
@@ -2147,7 +2124,7 @@
         <v>0.6040342591420127</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>17</v>
@@ -2187,7 +2164,7 @@
         <v>0.995</v>
       </c>
       <c r="O23" s="5">
-        <v>1882.8119999999999</v>
+        <v>1882.812</v>
       </c>
       <c r="P23" s="5">
         <v>1150</v>
@@ -2197,10 +2174,10 @@
       </c>
       <c r="R23" s="5">
         <f>(P23-Q23)/(O23-N23)</f>
-        <v>0.58029021950593496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.580290219505935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>18</v>
@@ -2250,10 +2227,10 @@
       </c>
       <c r="R24" s="5">
         <f>(P24-Q24)/(O24-N24)</f>
-        <v>0.57436293752516776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5743629375251678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>6</v>
       </c>
@@ -2307,10 +2284,10 @@
       </c>
       <c r="R25" s="10">
         <f>AVERAGE(R22:R24)</f>
-        <v>0.58622913872437177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5862291387243718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
         <v>19</v>
@@ -2345,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="5">
-        <v>0.95499999999999996</v>
+        <v>0.955</v>
       </c>
       <c r="O26" s="5">
-        <v>1865.1420000000001</v>
+        <v>1865.142</v>
       </c>
       <c r="P26" s="5">
         <v>1172</v>
@@ -2358,10 +2335,10 @@
       </c>
       <c r="R26" s="5">
         <f>(P26-Q26)/(O26-N26)</f>
-        <v>0.61957303639602679</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6195730363960268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
         <v>20</v>
@@ -2396,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="5">
-        <v>0.94099999999999995</v>
+        <v>0.941</v>
       </c>
       <c r="O27" s="5">
         <v>1878.597</v>
@@ -2409,10 +2386,10 @@
       </c>
       <c r="R27" s="5">
         <f>(P27-Q27)/(O27-N27)</f>
-        <v>0.62950828053701002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.62950828053701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4">
         <v>21</v>
@@ -2447,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="5">
-        <v>0.96399999999999997</v>
+        <v>0.964</v>
       </c>
       <c r="O28" s="5">
-        <v>1811.0150000000001</v>
+        <v>1811.015</v>
       </c>
       <c r="P28" s="5">
         <v>1169</v>
@@ -2460,10 +2437,10 @@
       </c>
       <c r="R28" s="5">
         <f>(P28-Q28)/(O28-N28)</f>
-        <v>0.63423627290059781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6342362729005978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>7</v>
       </c>
@@ -2499,7 +2476,7 @@
       </c>
       <c r="N29" s="10">
         <f>AVERAGE(N26:N28)</f>
-        <v>0.95333333333333325</v>
+        <v>0.9533333333333333</v>
       </c>
       <c r="O29" s="10">
         <f>AVERAGE(O26:O28)</f>
@@ -2515,10 +2492,10 @@
       </c>
       <c r="R29" s="10">
         <f>AVERAGE(R26:R28)</f>
-        <v>0.62777252994454491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6277725299445449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>22</v>
@@ -2553,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="5">
-        <v>0.97599999999999998</v>
+        <v>0.976</v>
       </c>
       <c r="O30" s="5">
-        <v>1789.7180000000001</v>
+        <v>1789.718</v>
       </c>
       <c r="P30" s="5">
         <v>1196</v>
@@ -2566,10 +2543,10 @@
       </c>
       <c r="R30" s="5">
         <f>(P30-Q30)/(O30-N30)</f>
-        <v>0.66247675740827916</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6624767574082792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
         <v>23</v>
@@ -2604,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="5">
-        <v>0.92300000000000004</v>
+        <v>0.923</v>
       </c>
       <c r="O31" s="5">
         <v>1797.59</v>
@@ -2617,10 +2594,10 @@
       </c>
       <c r="R31" s="5">
         <f>(P31-Q31)/(O31-N31)</f>
-        <v>0.63896092041541364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6389609204154136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
         <v>24</v>
@@ -2655,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="N32" s="5">
-        <v>0.95699999999999996</v>
+        <v>0.957</v>
       </c>
       <c r="O32" s="5">
-        <v>1802.6130000000001</v>
+        <v>1802.613</v>
       </c>
       <c r="P32" s="5">
         <v>1129</v>
@@ -2668,10 +2645,10 @@
       </c>
       <c r="R32" s="5">
         <f>(P32-Q32)/(O32-N32)</f>
-        <v>0.61554480988601601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.615544809886016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>8</v>
       </c>
@@ -2707,7 +2684,7 @@
       </c>
       <c r="N33" s="10">
         <f>AVERAGE(N30:N32)</f>
-        <v>0.95199999999999996</v>
+        <v>0.952</v>
       </c>
       <c r="O33" s="10">
         <f>AVERAGE(O30:O32)</f>
@@ -2723,10 +2700,10 @@
       </c>
       <c r="R33" s="10">
         <f>AVERAGE(R30:R32)</f>
-        <v>0.63899416256990282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6389941625699028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
         <v>25</v>
@@ -2761,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="N34" s="5">
-        <v>0.95199999999999996</v>
+        <v>0.952</v>
       </c>
       <c r="O34" s="5">
-        <v>1812.1510000000001</v>
+        <v>1812.151</v>
       </c>
       <c r="P34" s="5">
         <v>1159</v>
@@ -2774,10 +2751,10 @@
       </c>
       <c r="R34" s="5">
         <f>(P34-Q34)/(O34-N34)</f>
-        <v>0.63549063355269075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6354906335526908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
         <v>26</v>
@@ -2815,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <v>1799.6980000000001</v>
+        <v>1799.698</v>
       </c>
       <c r="P35" s="5">
         <v>1196</v>
@@ -2825,10 +2802,10 @@
       </c>
       <c r="R35" s="5">
         <f>(P35-Q35)/(O35-N35)</f>
-        <v>0.65603008398296991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6560300839829699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
         <v>27</v>
@@ -2863,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="N36" s="5">
-        <v>0.94499999999999995</v>
+        <v>0.945</v>
       </c>
       <c r="O36" s="5">
-        <v>1814.1120000000001</v>
+        <v>1814.112</v>
       </c>
       <c r="P36" s="5">
         <v>1137</v>
@@ -2879,7 +2856,7 @@
         <v>0.6154976348014275</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>9</v>
       </c>
@@ -2915,7 +2892,7 @@
       </c>
       <c r="N37" s="10">
         <f>AVERAGE(N34:N36)</f>
-        <v>0.96566666666666656</v>
+        <v>0.9656666666666666</v>
       </c>
       <c r="O37" s="10">
         <f>AVERAGE(O34:O36)</f>
@@ -2931,10 +2908,10 @@
       </c>
       <c r="R37" s="10">
         <f>AVERAGE(R34:R36)</f>
-        <v>0.63567278411236272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6356727841123627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <v>28</v>
@@ -2969,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="N38" s="5">
-        <v>0.95699999999999996</v>
+        <v>0.957</v>
       </c>
       <c r="O38" s="5">
-        <v>1793.2729999999999</v>
+        <v>1793.273</v>
       </c>
       <c r="P38" s="5">
         <v>1174</v>
@@ -2982,10 +2959,10 @@
       </c>
       <c r="R38" s="5">
         <f>(P38-Q38)/(O38-N38)</f>
-        <v>0.65055492446644458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6505549244664446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>29</v>
@@ -3020,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="5">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="O39" s="5">
         <v>1796.327</v>
@@ -3033,10 +3010,10 @@
       </c>
       <c r="R39" s="5">
         <f>(P39-Q39)/(O39-N39)</f>
-        <v>0.60544892896251556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6054489289625156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
         <v>30</v>
@@ -3071,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="5">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="O40" s="5">
         <v>1794.922</v>
@@ -3084,10 +3061,10 @@
       </c>
       <c r="R40" s="5">
         <f>(P40-Q40)/(O40-N40)</f>
-        <v>0.65776124827477034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6577612482747703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>10</v>
       </c>
@@ -3142,7 +3119,7 @@
         <v>0.6379217005679102</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>31</v>
@@ -3177,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="5">
-        <v>0.94899999999999995</v>
+        <v>0.949</v>
       </c>
       <c r="O42" s="5">
-        <v>1846.4670000000001</v>
+        <v>1846.467</v>
       </c>
       <c r="P42" s="5">
         <v>1124</v>
@@ -3190,10 +3167,10 @@
       </c>
       <c r="R42" s="5">
         <f>(P42-Q42)/(O42-N42)</f>
-        <v>0.60362456502727146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6036245650272715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
         <v>32</v>
@@ -3231,7 +3208,7 @@
         <v>1.036</v>
       </c>
       <c r="O43" s="5">
-        <v>1848.3119999999999</v>
+        <v>1848.312</v>
       </c>
       <c r="P43" s="5">
         <v>1154</v>
@@ -3241,10 +3218,10 @@
       </c>
       <c r="R43" s="5">
         <f>(P43-Q43)/(O43-N43)</f>
-        <v>0.61658355329685444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6165835532968544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4">
         <v>33</v>
@@ -3279,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="5">
-        <v>0.95199999999999996</v>
+        <v>0.952</v>
       </c>
       <c r="O44" s="5">
         <v>1826.518</v>
@@ -3292,10 +3269,10 @@
       </c>
       <c r="R44" s="5">
         <f>(P44-Q44)/(O44-N44)</f>
-        <v>0.62336831426527439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6233683142652744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>11</v>
       </c>
@@ -3331,7 +3308,7 @@
       </c>
       <c r="N45" s="10">
         <f>AVERAGE(N42:N44)</f>
-        <v>0.97899999999999998</v>
+        <v>0.979</v>
       </c>
       <c r="O45" s="10">
         <f>AVERAGE(O42:O44)</f>
@@ -3347,10 +3324,10 @@
       </c>
       <c r="R45" s="10">
         <f>AVERAGE(R42:R44)</f>
-        <v>0.61452547752980013</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6145254775298001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>34</v>
@@ -3385,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="5">
-        <v>0.95599999999999996</v>
+        <v>0.956</v>
       </c>
       <c r="O46" s="5">
         <v>1878.146</v>
@@ -3401,7 +3378,7 @@
         <v>0.6206084626489593</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
         <v>35</v>
@@ -3436,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="5">
-        <v>0.99099999999999999</v>
+        <v>0.991</v>
       </c>
       <c r="O47" s="5">
         <v>1886.77</v>
@@ -3449,10 +3426,10 @@
       </c>
       <c r="R47" s="5">
         <f>(P47-Q47)/(O47-N47)</f>
-        <v>0.60664584768416663</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6066458476841666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
         <v>36</v>
@@ -3487,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="5">
-        <v>1.0009999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="O48" s="5">
         <v>1870.348</v>
@@ -3500,10 +3477,10 @@
       </c>
       <c r="R48" s="5">
         <f>(P48-Q48)/(O48-N48)</f>
-        <v>0.61893270751765195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.618932707517652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>12</v>
       </c>
@@ -3539,7 +3516,7 @@
       </c>
       <c r="N49" s="10">
         <f>AVERAGE(N46:N48)</f>
-        <v>0.98266666666666669</v>
+        <v>0.9826666666666667</v>
       </c>
       <c r="O49" s="10">
         <f>AVERAGE(O46:O48)</f>
@@ -3555,10 +3532,10 @@
       </c>
       <c r="R49" s="10">
         <f>AVERAGE(R46:R48)</f>
-        <v>0.61539567261692596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.615395672616926</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
         <v>37</v>
@@ -3593,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="N50" s="5">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="O50" s="5">
-        <v>1833.9590000000001</v>
+        <v>1833.959</v>
       </c>
       <c r="P50" s="5">
         <v>1175</v>
@@ -3606,10 +3583,10 @@
       </c>
       <c r="R50" s="5">
         <f>(P50-Q50)/(O50-N50)</f>
-        <v>0.63066218438249111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6306621843824911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>38</v>
@@ -3644,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="N51" s="5">
-        <v>0.98199999999999998</v>
+        <v>0.982</v>
       </c>
       <c r="O51" s="5">
-        <v>1823.2449999999999</v>
+        <v>1823.245</v>
       </c>
       <c r="P51" s="5">
         <v>1143</v>
@@ -3657,10 +3634,10 @@
       </c>
       <c r="R51" s="5">
         <f>(P51-Q51)/(O51-N51)</f>
-        <v>0.62010807441077387</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6201080744107739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
         <v>39</v>
@@ -3695,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="5">
-        <v>1.0609999999999999</v>
+        <v>1.061</v>
       </c>
       <c r="O52" s="5">
         <v>1862.086</v>
@@ -3708,10 +3685,10 @@
       </c>
       <c r="R52" s="5">
         <f>(P52-Q52)/(O52-N52)</f>
-        <v>0.61041630284386295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.610416302843863</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>13</v>
       </c>
@@ -3763,10 +3740,10 @@
       </c>
       <c r="R53" s="10">
         <f>AVERAGE(R50:R52)</f>
-        <v>0.62039552054570934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.6203955205457093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>40</v>
@@ -3803,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="5">
-        <v>1.0109999999999999</v>
+        <v>1.011</v>
       </c>
       <c r="O54" s="5">
         <v>1971.66</v>
@@ -3816,10 +3793,10 @@
       </c>
       <c r="R54" s="5">
         <f>(P54-Q54)/(O54-N54)</f>
-        <v>0.56732578962565117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5673257896256512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
         <v>41</v>
@@ -3856,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="5">
-        <v>1.0109999999999999</v>
+        <v>1.011</v>
       </c>
       <c r="O55" s="5">
         <v>1960.989</v>
@@ -3869,10 +3846,10 @@
       </c>
       <c r="R55" s="5">
         <f>(P55-Q55)/(O55-N55)</f>
-        <v>0.58521065032362607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5852106503236261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
         <v>42</v>
@@ -3912,7 +3889,7 @@
         <v>1.046</v>
       </c>
       <c r="O56" s="5">
-        <v>2009.6469999999999</v>
+        <v>2009.647</v>
       </c>
       <c r="P56" s="5">
         <v>1186</v>
@@ -3922,10 +3899,10 @@
       </c>
       <c r="R56" s="5">
         <f>(P56-Q56)/(O56-N56)</f>
-        <v>0.58000568554929532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5800056855492953</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>14</v>
       </c>
@@ -3979,10 +3956,10 @@
       </c>
       <c r="R57" s="10">
         <f>AVERAGE(R54:R56)</f>
-        <v>0.57751404183285748</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5775140418328575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
         <v>43</v>
@@ -4019,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="5">
-        <v>1.0860000000000001</v>
+        <v>1.086</v>
       </c>
       <c r="O58" s="5">
         <v>2222.317</v>
@@ -4032,10 +4009,10 @@
       </c>
       <c r="R58" s="5">
         <f>(P58-Q58)/(O58-N58)</f>
-        <v>0.51728073307098621</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5172807330709862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4">
         <v>44</v>
@@ -4075,7 +4052,7 @@
         <v>1.117</v>
       </c>
       <c r="O59" s="5">
-        <v>2138.1129999999998</v>
+        <v>2138.113</v>
       </c>
       <c r="P59" s="5">
         <v>1152</v>
@@ -4085,10 +4062,10 @@
       </c>
       <c r="R59" s="5">
         <f>(P59-Q59)/(O59-N59)</f>
-        <v>0.53345911737785201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.533459117377852</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4">
         <v>45</v>
@@ -4125,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="N60" s="5">
-        <v>1.2010000000000001</v>
+        <v>1.201</v>
       </c>
       <c r="O60" s="5">
-        <v>2229.4209999999998</v>
+        <v>2229.421</v>
       </c>
       <c r="P60" s="5">
         <v>1159</v>
@@ -4141,7 +4118,7 @@
         <v>0.5165558158530128</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>15</v>
       </c>
@@ -4183,7 +4160,7 @@
       </c>
       <c r="O61" s="10">
         <f>AVERAGE(O58:O60)</f>
-        <v>2196.6170000000002</v>
+        <v>2196.617</v>
       </c>
       <c r="P61" s="10">
         <f>AVERAGE(P58:P60)</f>
@@ -4195,10 +4172,10 @@
       </c>
       <c r="R61" s="10">
         <f>AVERAGE(R58:R60)</f>
-        <v>0.52243188876728364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5224318887672836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4">
         <v>46</v>
@@ -4238,7 +4215,7 @@
         <v>1.238</v>
       </c>
       <c r="O62" s="5">
-        <v>2261.0030000000002</v>
+        <v>2261.003</v>
       </c>
       <c r="P62" s="5">
         <v>1187</v>
@@ -4248,10 +4225,10 @@
       </c>
       <c r="R62" s="5">
         <f>(P62-Q62)/(O62-N62)</f>
-        <v>0.52129314331357457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5212931433135746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>47</v>
@@ -4291,7 +4268,7 @@
         <v>1.141</v>
       </c>
       <c r="O63" s="5">
-        <v>2235.7379999999998</v>
+        <v>2235.738</v>
       </c>
       <c r="P63" s="5">
         <v>1183</v>
@@ -4301,10 +4278,10 @@
       </c>
       <c r="R63" s="5">
         <f>(P63-Q63)/(O63-N63)</f>
-        <v>0.52761191391557405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.527611913915574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4">
         <v>48</v>
@@ -4354,10 +4331,10 @@
       </c>
       <c r="R64" s="5">
         <f>(P64-Q64)/(O64-N64)</f>
-        <v>0.51312431438887973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5131243143888797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>16</v>
       </c>
@@ -4411,10 +4388,10 @@
       </c>
       <c r="R65" s="10">
         <f>AVERAGE(R54:R56)</f>
-        <v>0.57751404183285748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.5775140418328575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>49</v>
@@ -4452,7 +4429,7 @@
         <v>1.05</v>
       </c>
       <c r="O66" s="5">
-        <v>159.41300000000001</v>
+        <v>159.413</v>
       </c>
       <c r="P66" s="5">
         <v>2</v>
@@ -4462,10 +4439,10 @@
       </c>
       <c r="R66" s="5">
         <f>(P66-Q66)/(O66-N66)</f>
-        <v>1.2629212631738475E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.012629212631738475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>50</v>
@@ -4500,10 +4477,10 @@
         <v>2</v>
       </c>
       <c r="N67" s="5">
-        <v>1.1679999999999999</v>
+        <v>1.168</v>
       </c>
       <c r="O67" s="5">
-        <v>466.58800000000002</v>
+        <v>466.588</v>
       </c>
       <c r="P67" s="5">
         <v>12</v>
@@ -4513,10 +4490,10 @@
       </c>
       <c r="R67" s="5">
         <f>(P67-Q67)/(O67-N67)</f>
-        <v>2.5783163594173004E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.025783163594173004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4">
         <v>51</v>
@@ -4564,10 +4541,10 @@
       </c>
       <c r="R68" s="5">
         <f>(P68-Q68)/(O68-N68)</f>
-        <v>3.1598272206475749E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.003159827220647575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>17</v>
       </c>
@@ -4607,11 +4584,11 @@
       </c>
       <c r="O69" s="10">
         <f>AVERAGE(O66:O68)</f>
-        <v>947.48100000000011</v>
+        <v>947.4810000000001</v>
       </c>
       <c r="P69" s="10">
         <f>AVERAGE(P66:P68)</f>
-        <v>8.3333333333333339</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="Q69" s="10">
         <f>AVERAGE(Q66:Q68)</f>
@@ -4619,10 +4596,10 @@
       </c>
       <c r="R69" s="10">
         <f>AVERAGE(R66:R68)</f>
-        <v>1.3857401148853019E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.013857401148853019</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4">
         <v>52</v>
@@ -4656,16 +4633,24 @@
       <c r="M70" s="12">
         <v>2</v>
       </c>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
+      <c r="N70" s="5">
+        <v>0.915</v>
+      </c>
+      <c r="O70" s="5">
+        <v>735.673</v>
+      </c>
+      <c r="P70" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>0</v>
+      </c>
       <c r="R70" s="5" t="e">
         <f>(P70-Q70)/(O70-N70)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4">
         <v>53</v>
@@ -4699,16 +4684,24 @@
       <c r="M71" s="12">
         <v>2</v>
       </c>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
+      <c r="N71" s="5">
+        <v>0.932</v>
+      </c>
+      <c r="O71" s="5">
+        <v>1714.997</v>
+      </c>
+      <c r="P71" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>4</v>
+      </c>
       <c r="R71" s="5" t="e">
         <f>(P71-Q71)/(O71-N71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4">
         <v>54</v>
@@ -4742,16 +4735,24 @@
       <c r="M72" s="12">
         <v>2</v>
       </c>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
+      <c r="N72" s="5">
+        <v>0.919</v>
+      </c>
+      <c r="O72" s="5">
+        <v>1551.964</v>
+      </c>
+      <c r="P72" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>0</v>
+      </c>
       <c r="R72" s="5" t="e">
         <f>(P72-Q72)/(O72-N72)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>18</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4">
         <v>55</v>
@@ -4840,16 +4841,24 @@
       <c r="M74" s="12">
         <v>2</v>
       </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
+      <c r="N74" s="5">
+        <v>0.907</v>
+      </c>
+      <c r="O74" s="5">
+        <v>1713.63</v>
+      </c>
+      <c r="P74" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>2</v>
+      </c>
       <c r="R74" s="5" t="e">
         <f>(P74-Q74)/(O74-N74)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4">
         <v>56</v>
@@ -4883,16 +4892,24 @@
       <c r="M75" s="12">
         <v>2</v>
       </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
+      <c r="N75" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O75" s="5">
+        <v>531.554</v>
+      </c>
+      <c r="P75" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>0</v>
+      </c>
       <c r="R75" s="5" t="e">
         <f>(P75-Q75)/(O75-N75)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4">
         <v>57</v>
@@ -4926,16 +4943,24 @@
       <c r="M76" s="12">
         <v>2</v>
       </c>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
+      <c r="N76" s="5">
+        <v>0.925</v>
+      </c>
+      <c r="O76" s="5">
+        <v>1716.726</v>
+      </c>
+      <c r="P76" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>4</v>
+      </c>
       <c r="R76" s="5" t="e">
         <f>(P76-Q76)/(O76-N76)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="19.5" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>19</v>
       </c>
@@ -4990,7 +5015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4">
         <v>58</v>
@@ -5026,16 +5051,24 @@
       <c r="M78" s="12">
         <v>2</v>
       </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
+      <c r="N78" s="5">
+        <v>0.924</v>
+      </c>
+      <c r="O78" s="5">
+        <v>1801.37</v>
+      </c>
+      <c r="P78" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>8</v>
+      </c>
       <c r="R78" s="5" t="e">
         <f>(P78-Q78)/(O78-N78)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4">
         <v>59</v>
@@ -5071,16 +5104,24 @@
       <c r="M79" s="12">
         <v>2</v>
       </c>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
+      <c r="N79" s="5">
+        <v>0.916</v>
+      </c>
+      <c r="O79" s="5">
+        <v>10.86</v>
+      </c>
+      <c r="P79" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>0</v>
+      </c>
       <c r="R79" s="5" t="e">
         <f>(P79-Q79)/(O79-N79)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4">
         <v>60</v>
@@ -5116,16 +5157,24 @@
       <c r="M80" s="12">
         <v>2</v>
       </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
+      <c r="N80" s="5">
+        <v>0.946</v>
+      </c>
+      <c r="O80" s="5">
+        <v>228.404</v>
+      </c>
+      <c r="P80" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0</v>
+      </c>
       <c r="R80" s="5" t="e">
         <f>(P80-Q80)/(O80-N80)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>20</v>
       </c>
@@ -5182,7 +5231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4">
         <v>61</v>
@@ -5216,16 +5265,24 @@
       <c r="M82" s="12">
         <v>2</v>
       </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
+      <c r="N82" s="5">
+        <v>1.212</v>
+      </c>
+      <c r="O82" s="5">
+        <v>623.448</v>
+      </c>
+      <c r="P82" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>0</v>
+      </c>
       <c r="R82" s="5" t="e">
         <f>(P82-Q82)/(O82-N82)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4">
         <v>62</v>
@@ -5259,16 +5316,24 @@
       <c r="M83" s="12">
         <v>2</v>
       </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
+      <c r="N83" s="5">
+        <v>0.933</v>
+      </c>
+      <c r="O83" s="5">
+        <v>254.35</v>
+      </c>
+      <c r="P83" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>0</v>
+      </c>
       <c r="R83" s="5" t="e">
         <f>(P83-Q83)/(O83-N83)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4">
         <v>63</v>
@@ -5302,16 +5367,24 @@
       <c r="M84" s="12">
         <v>2</v>
       </c>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
+      <c r="N84" s="5">
+        <v>0.919</v>
+      </c>
+      <c r="O84" s="5">
+        <v>1700.65</v>
+      </c>
+      <c r="P84" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>3</v>
+      </c>
       <c r="R84" s="5" t="e">
         <f>(P84-Q84)/(O84-N84)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>21</v>
       </c>
@@ -5366,7 +5439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4">
         <v>64</v>
@@ -5402,16 +5475,24 @@
       <c r="M86" s="12">
         <v>2</v>
       </c>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
+      <c r="N86" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="O86" s="5">
+        <v>2430.097</v>
+      </c>
+      <c r="P86" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>2</v>
+      </c>
       <c r="R86" s="5" t="e">
         <f>(P86-Q86)/(O86-N86)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4">
         <v>65</v>
@@ -5447,16 +5528,24 @@
       <c r="M87" s="12">
         <v>2</v>
       </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
+      <c r="N87" s="5">
+        <v>1.101</v>
+      </c>
+      <c r="O87" s="5">
+        <v>69.572</v>
+      </c>
+      <c r="P87" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>0</v>
+      </c>
       <c r="R87" s="5" t="e">
         <f>(P87-Q87)/(O87-N87)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4">
         <v>66</v>
@@ -5492,16 +5581,24 @@
       <c r="M88" s="12">
         <v>2</v>
       </c>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
+      <c r="N88" s="5">
+        <v>1.114</v>
+      </c>
+      <c r="O88" s="5">
+        <v>2179.079</v>
+      </c>
+      <c r="P88" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>2</v>
+      </c>
       <c r="R88" s="5" t="e">
         <f>(P88-Q88)/(O88-N88)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>22</v>
       </c>
@@ -5560,24 +5657,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="22" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5645,7 +5742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -5692,10 +5789,10 @@
         <v>18</v>
       </c>
       <c r="R2" s="6">
-        <v>1.08</v>
+        <v>1.077</v>
       </c>
       <c r="S2" s="6">
-        <v>1894.99</v>
+        <v>1894.992</v>
       </c>
       <c r="T2" s="6">
         <v>1107</v>
@@ -5705,10 +5802,10 @@
       </c>
       <c r="V2" s="5">
         <f>(T2-U2)/(S2-R2)</f>
-        <v>0.57658494859840226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5765849485984023</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -5768,10 +5865,10 @@
       </c>
       <c r="V3" s="5">
         <f>(T3-U3)/(S3-R3)</f>
-        <v>0.56915167357087904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.569151673570879</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
@@ -5818,7 +5915,7 @@
         <v>18</v>
       </c>
       <c r="R4" s="5">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="S4" s="5">
         <v>1913.501</v>
@@ -5831,10 +5928,10 @@
       </c>
       <c r="V4" s="5">
         <f>(T4-U4)/(S4-R4)</f>
-        <v>0.58461459622635992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5846145962263599</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -5881,7 +5978,7 @@
         <v>18</v>
       </c>
       <c r="R5" s="9">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="S5" s="10">
         <v>1924.096333</v>
@@ -5894,10 +5991,10 @@
       </c>
       <c r="V5" s="10">
         <f>AVERAGE(V2:V4)</f>
-        <v>0.57678373946521377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5767837394652138</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -5944,10 +6041,10 @@
         <v>18</v>
       </c>
       <c r="R6" s="6">
-        <v>2.25</v>
+        <v>2.252</v>
       </c>
       <c r="S6" s="6">
-        <v>3772.72</v>
+        <v>3772.724</v>
       </c>
       <c r="T6" s="6">
         <v>1109</v>
@@ -5960,7 +6057,7 @@
         <v>0.29280169315761695</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -6010,7 +6107,7 @@
         <v>2.218</v>
       </c>
       <c r="S7" s="5">
-        <v>3599.4870000000001</v>
+        <v>3599.487</v>
       </c>
       <c r="T7" s="5">
         <v>1135</v>
@@ -6023,7 +6120,7 @@
         <v>0.31273724594963564</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -6070,7 +6167,7 @@
         <v>18</v>
       </c>
       <c r="R8" s="5">
-        <v>2.1629999999999998</v>
+        <v>2.163</v>
       </c>
       <c r="S8" s="5">
         <v>3618.027</v>
@@ -6083,10 +6180,10 @@
       </c>
       <c r="V8" s="5">
         <f>(T8-U8)/(S8-R8)</f>
-        <v>0.29176982320131511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.2917698232013151</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -6136,20 +6233,20 @@
         <v>2.21</v>
       </c>
       <c r="S9" s="10">
-        <v>3663.4126670000001</v>
+        <v>3663.412667</v>
       </c>
       <c r="T9" s="10">
         <v>1101</v>
       </c>
       <c r="U9" s="10">
-        <v>6.3333333329999997</v>
+        <v>6.333333333</v>
       </c>
       <c r="V9" s="10">
         <f>AVERAGE(V6:V8)</f>
         <v>0.29910292076952255</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -6196,10 +6293,10 @@
         <v>18</v>
       </c>
       <c r="R10" s="6">
-        <v>3.04</v>
+        <v>3.036</v>
       </c>
       <c r="S10" s="6">
-        <v>5396.23</v>
+        <v>5396.231</v>
       </c>
       <c r="T10" s="6">
         <v>1117</v>
@@ -6212,7 +6309,7 @@
         <v>0.20600053029839485</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -6259,10 +6356,10 @@
         <v>18</v>
       </c>
       <c r="R11" s="5">
-        <v>3.0920000000000001</v>
+        <v>3.092</v>
       </c>
       <c r="S11" s="5">
-        <v>5455.1809999999996</v>
+        <v>5455.181</v>
       </c>
       <c r="T11" s="5">
         <v>1117</v>
@@ -6275,7 +6372,7 @@
         <v>0.20414193532057162</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -6322,10 +6419,10 @@
         <v>18</v>
       </c>
       <c r="R12" s="5">
-        <v>3.0760000000000001</v>
+        <v>3.076</v>
       </c>
       <c r="S12" s="5">
-        <v>5347.1289999999999</v>
+        <v>5347.129</v>
       </c>
       <c r="T12" s="5">
         <v>1122</v>
@@ -6338,7 +6435,7 @@
         <v>0.2095787597914916</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -6388,7 +6485,7 @@
         <v>3.07</v>
       </c>
       <c r="S13" s="10">
-        <v>5399.5136670000002</v>
+        <v>5399.513667</v>
       </c>
       <c r="T13" s="10">
         <v>1118.666667</v>
@@ -6398,10 +6495,10 @@
       </c>
       <c r="V13" s="10">
         <f>AVERAGE(V10:V12)</f>
-        <v>0.20657374180348601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.206573741803486</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
@@ -6448,10 +6545,10 @@
         <v>18</v>
       </c>
       <c r="R14" s="6">
-        <v>1.1299999999999999</v>
+        <v>1.129</v>
       </c>
       <c r="S14" s="6">
-        <v>1833.11</v>
+        <v>1833.106</v>
       </c>
       <c r="T14" s="6">
         <v>1117</v>
@@ -6461,10 +6558,10 @@
       </c>
       <c r="V14" s="5">
         <f>(T14-U14)/(S14-R14)</f>
-        <v>0.60535595366761652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6053559536676165</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
@@ -6511,7 +6608,7 @@
         <v>18</v>
       </c>
       <c r="R15" s="5">
-        <v>1.1080000000000001</v>
+        <v>1.108</v>
       </c>
       <c r="S15" s="5">
         <v>1847.354</v>
@@ -6524,10 +6621,10 @@
       </c>
       <c r="V15" s="5">
         <f>(T15-U15)/(S15-R15)</f>
-        <v>0.61042786280918138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6104278628091814</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
@@ -6574,10 +6671,10 @@
         <v>18</v>
       </c>
       <c r="R16" s="5">
-        <v>1.1319999999999999</v>
+        <v>1.132</v>
       </c>
       <c r="S16" s="5">
-        <v>1827.4929999999999</v>
+        <v>1827.493</v>
       </c>
       <c r="T16" s="5">
         <v>1106</v>
@@ -6587,10 +6684,10 @@
       </c>
       <c r="V16" s="5">
         <f>(T16-U16)/(S16-R16)</f>
-        <v>0.59900534450746601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.599005344507466</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -6637,23 +6734,23 @@
         <v>18</v>
       </c>
       <c r="R17" s="9">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="S17" s="10">
-        <v>1835.9843330000001</v>
+        <v>1835.984333</v>
       </c>
       <c r="T17" s="10">
         <v>1119.333333</v>
       </c>
       <c r="U17" s="10">
-        <v>9.3333333330000006</v>
+        <v>9.333333333</v>
       </c>
       <c r="V17" s="10">
         <f>AVERAGE(V14:V16)</f>
-        <v>0.60492972032808801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.604929720328088</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -6700,10 +6797,10 @@
         <v>18</v>
       </c>
       <c r="R18" s="6">
-        <v>1.0900000000000001</v>
+        <v>1.089</v>
       </c>
       <c r="S18" s="6">
-        <v>1849.74</v>
+        <v>1849.736</v>
       </c>
       <c r="T18" s="6">
         <v>1129</v>
@@ -6713,10 +6810,10 @@
       </c>
       <c r="V18" s="5">
         <f>(T18-U18)/(S18-R18)</f>
-        <v>0.60963405728504583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6096340572850458</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
@@ -6766,7 +6863,7 @@
         <v>1.129</v>
       </c>
       <c r="S19" s="5">
-        <v>1893.2059999999999</v>
+        <v>1893.206</v>
       </c>
       <c r="T19" s="5">
         <v>1088</v>
@@ -6776,10 +6873,10 @@
       </c>
       <c r="V19" s="5">
         <f>(T19-U19)/(S19-R19)</f>
-        <v>0.57080129402767432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5708012940276743</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
@@ -6826,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="R20" s="5">
-        <v>1.1439999999999999</v>
+        <v>1.144</v>
       </c>
       <c r="S20" s="5">
         <v>1933.848</v>
@@ -6839,10 +6936,10 @@
       </c>
       <c r="V20" s="5">
         <f>(T20-U20)/(S20-R20)</f>
-        <v>0.57587711310164413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5758771131016441</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -6889,10 +6986,10 @@
         <v>18</v>
       </c>
       <c r="R21" s="9">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="S21" s="10">
-        <v>1892.2633330000001</v>
+        <v>1892.263333</v>
       </c>
       <c r="T21" s="10">
         <v>1112.666667</v>
@@ -6902,10 +6999,10 @@
       </c>
       <c r="V21" s="10">
         <f>AVERAGE(V18:V20)</f>
-        <v>0.58543748813812135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5854374881381214</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -6952,10 +7049,10 @@
         <v>18</v>
       </c>
       <c r="R22" s="6">
-        <v>1.06</v>
+        <v>1.064</v>
       </c>
       <c r="S22" s="6">
-        <v>1871.39</v>
+        <v>1871.385</v>
       </c>
       <c r="T22" s="6">
         <v>1124</v>
@@ -6965,10 +7062,10 @@
       </c>
       <c r="V22" s="5">
         <f>(T22-U22)/(S22-R22)</f>
-        <v>0.59882480631760171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5988248063176017</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -7015,7 +7112,7 @@
         <v>18</v>
       </c>
       <c r="R23" s="5">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="S23" s="5">
         <v>1906.78</v>
@@ -7028,10 +7125,10 @@
       </c>
       <c r="V23" s="5">
         <f>(T23-U23)/(S23-R23)</f>
-        <v>0.56044163640561706</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5604416364056171</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -7081,7 +7178,7 @@
         <v>1.107</v>
       </c>
       <c r="S24" s="5">
-        <v>1903.0429999999999</v>
+        <v>1903.043</v>
       </c>
       <c r="T24" s="5">
         <v>1089</v>
@@ -7091,10 +7188,10 @@
       </c>
       <c r="V24" s="5">
         <f>(T24-U24)/(S24-R24)</f>
-        <v>0.56731667101311511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5673166710131151</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>6</v>
       </c>
@@ -7141,23 +7238,23 @@
         <v>18</v>
       </c>
       <c r="R25" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="S25" s="10">
-        <v>1893.7360000000001</v>
+        <v>1893.736</v>
       </c>
       <c r="T25" s="10">
         <v>1094.333333</v>
       </c>
       <c r="U25" s="10">
-        <v>5.3333333329999997</v>
+        <v>5.333333333</v>
       </c>
       <c r="V25" s="10">
         <f>AVERAGE(V22:V24)</f>
         <v>0.575527704578778</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
         <v>19</v>
@@ -7204,10 +7301,10 @@
         <v>18</v>
       </c>
       <c r="R26" s="6">
-        <v>1.1200000000000001</v>
+        <v>1.117</v>
       </c>
       <c r="S26" s="6">
-        <v>1921.65</v>
+        <v>1921.652</v>
       </c>
       <c r="T26" s="6">
         <v>1152</v>
@@ -7217,10 +7314,10 @@
       </c>
       <c r="V26" s="5">
         <f>(T26-U26)/(S26-R26)</f>
-        <v>0.59775166230155208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5977516623015521</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
         <v>20</v>
@@ -7267,10 +7364,10 @@
         <v>18</v>
       </c>
       <c r="R27" s="5">
-        <v>1.2609999999999999</v>
+        <v>1.261</v>
       </c>
       <c r="S27" s="5">
-        <v>1880.8689999999999</v>
+        <v>1880.869</v>
       </c>
       <c r="T27" s="5">
         <v>1109</v>
@@ -7280,10 +7377,10 @@
       </c>
       <c r="V27" s="5">
         <f>(T27-U27)/(S27-R27)</f>
-        <v>0.58788853846121103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.587888538461211</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>21</v>
@@ -7333,7 +7430,7 @@
         <v>1.087</v>
       </c>
       <c r="S28" s="5">
-        <v>1892.5070000000001</v>
+        <v>1892.507</v>
       </c>
       <c r="T28" s="5">
         <v>1132</v>
@@ -7343,10 +7440,10 @@
       </c>
       <c r="V28" s="5">
         <f>(T28-U28)/(S28-R28)</f>
-        <v>0.59479121506592925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5947912150659292</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>7</v>
       </c>
@@ -7393,10 +7490,10 @@
         <v>18</v>
       </c>
       <c r="R29" s="9">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S29" s="10">
-        <v>1898.3426669999999</v>
+        <v>1898.342667</v>
       </c>
       <c r="T29" s="10">
         <v>1131</v>
@@ -7406,10 +7503,10 @@
       </c>
       <c r="V29" s="10">
         <f>AVERAGE(V26:V28)</f>
-        <v>0.59347713860956419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5934771386095642</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
         <v>22</v>
@@ -7456,10 +7553,10 @@
         <v>18</v>
       </c>
       <c r="R30" s="6">
-        <v>1.01</v>
+        <v>1.014</v>
       </c>
       <c r="S30" s="6">
-        <v>1903.52</v>
+        <v>1903.517</v>
       </c>
       <c r="T30" s="6">
         <v>1137</v>
@@ -7469,10 +7566,10 @@
       </c>
       <c r="V30" s="5">
         <f>(T30-U30)/(S30-R30)</f>
-        <v>0.59447782140435534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5944778214043553</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
         <v>23</v>
@@ -7535,7 +7632,7 @@
         <v>0.5707581570853284</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
         <v>24</v>
@@ -7585,7 +7682,7 @@
         <v>1.052</v>
       </c>
       <c r="S32" s="5">
-        <v>1961.1510000000001</v>
+        <v>1961.151</v>
       </c>
       <c r="T32" s="5">
         <v>1129</v>
@@ -7595,10 +7692,10 @@
       </c>
       <c r="V32" s="5">
         <f>(T32-U32)/(S32-R32)</f>
-        <v>0.57088953160018951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5708895316001895</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>8</v>
       </c>
@@ -7658,10 +7755,10 @@
       </c>
       <c r="V33" s="10">
         <f>AVERAGE(V30:V32)</f>
-        <v>0.57870850336329116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5787085033632912</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="5">
         <v>25</v>
@@ -7708,10 +7805,10 @@
         <v>18</v>
       </c>
       <c r="R34" s="6">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="S34" s="6">
-        <v>1911.54</v>
+        <v>1911.537</v>
       </c>
       <c r="T34" s="6">
         <v>1156</v>
@@ -7721,10 +7818,10 @@
       </c>
       <c r="V34" s="5">
         <f>(T34-U34)/(S34-R34)</f>
-        <v>0.59778056951423786</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5977805695142379</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="5">
         <v>26</v>
@@ -7771,7 +7868,7 @@
         <v>18</v>
       </c>
       <c r="R35" s="5">
-        <v>1.1519999999999999</v>
+        <v>1.152</v>
       </c>
       <c r="S35" s="5">
         <v>1821.845</v>
@@ -7784,10 +7881,10 @@
       </c>
       <c r="V35" s="5">
         <f>(T35-U35)/(S35-R35)</f>
-        <v>0.62338900627398475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6233890062739847</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="5">
         <v>27</v>
@@ -7834,10 +7931,10 @@
         <v>18</v>
       </c>
       <c r="R36" s="5">
-        <v>1.0740000000000001</v>
+        <v>1.074</v>
       </c>
       <c r="S36" s="5">
-        <v>1907.9190000000001</v>
+        <v>1907.919</v>
       </c>
       <c r="T36" s="5">
         <v>1158</v>
@@ -7847,10 +7944,10 @@
       </c>
       <c r="V36" s="5">
         <f>(T36-U36)/(S36-R36)</f>
-        <v>0.60204159226366061</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6020415922636606</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>9</v>
       </c>
@@ -7897,7 +7994,7 @@
         <v>18</v>
       </c>
       <c r="R37" s="9">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="S37" s="10">
         <v>1880.433667</v>
@@ -7910,10 +8007,10 @@
       </c>
       <c r="V37" s="10">
         <f>AVERAGE(V34:V36)</f>
-        <v>0.60773705601729444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6077370560172944</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="5">
         <v>28</v>
@@ -7960,10 +8057,10 @@
         <v>23</v>
       </c>
       <c r="R38" s="6">
-        <v>1.04</v>
+        <v>1.036</v>
       </c>
       <c r="S38" s="6">
-        <v>1862.07</v>
+        <v>1862.068</v>
       </c>
       <c r="T38" s="6">
         <v>1154</v>
@@ -7973,10 +8070,10 @@
       </c>
       <c r="V38" s="5">
         <f>(T38-U38)/(S38-R38)</f>
-        <v>0.61793737876337296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.617937378763373</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="5">
         <v>29</v>
@@ -8036,10 +8133,10 @@
       </c>
       <c r="V39" s="5">
         <f>(T39-U39)/(S39-R39)</f>
-        <v>0.59711132325426197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.597111323254262</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="5">
         <v>30</v>
@@ -8099,10 +8196,10 @@
       </c>
       <c r="V40" s="5">
         <f>(T40-U40)/(S40-R40)</f>
-        <v>0.58262934449269999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5826293444927</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>10</v>
       </c>
@@ -8158,14 +8255,14 @@
         <v>1143</v>
       </c>
       <c r="U41" s="10">
-        <v>5.6666666670000003</v>
+        <v>5.666666667</v>
       </c>
       <c r="V41" s="10">
         <f>AVERAGE(V38:V40)</f>
-        <v>0.59922601550344501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.599226015503445</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="5">
         <v>31</v>
@@ -8212,10 +8309,10 @@
         <v>30</v>
       </c>
       <c r="R42" s="6">
-        <v>1.05</v>
+        <v>1.054</v>
       </c>
       <c r="S42" s="6">
-        <v>1916.53</v>
+        <v>1916.528</v>
       </c>
       <c r="T42" s="6">
         <v>1117</v>
@@ -8225,10 +8322,10 @@
       </c>
       <c r="V42" s="5">
         <f>(T42-U42)/(S42-R42)</f>
-        <v>0.57948921419174304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.579489214191743</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="5">
         <v>32</v>
@@ -8275,7 +8372,7 @@
         <v>30</v>
       </c>
       <c r="R43" s="5">
-        <v>1.1719999999999999</v>
+        <v>1.172</v>
       </c>
       <c r="S43" s="5">
         <v>1911.038</v>
@@ -8288,10 +8385,10 @@
       </c>
       <c r="V43" s="5">
         <f>(T43-U43)/(S43-R43)</f>
-        <v>0.57648023473898169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5764802347389817</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="5">
         <v>33</v>
@@ -8351,10 +8448,10 @@
       </c>
       <c r="V44" s="5">
         <f>(T44-U44)/(S44-R44)</f>
-        <v>0.57290849160257418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5729084916025742</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>11</v>
       </c>
@@ -8404,7 +8501,7 @@
         <v>1.08</v>
       </c>
       <c r="S45" s="10">
-        <v>1913.2940000000001</v>
+        <v>1913.294</v>
       </c>
       <c r="T45" s="10">
         <v>1109</v>
@@ -8414,10 +8511,10 @@
       </c>
       <c r="V45" s="10">
         <f>AVERAGE(V42:V44)</f>
-        <v>0.57629264684443304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.576292646844433</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="5">
         <v>34</v>
@@ -8464,10 +8561,10 @@
         <v>31</v>
       </c>
       <c r="R46" s="6">
-        <v>1.29</v>
+        <v>1.291</v>
       </c>
       <c r="S46" s="6">
-        <v>1928.17</v>
+        <v>1928.166</v>
       </c>
       <c r="T46" s="6">
         <v>1167</v>
@@ -8477,10 +8574,10 @@
       </c>
       <c r="V46" s="5">
         <f>(T46-U46)/(S46-R46)</f>
-        <v>0.59733870298098479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5973387029809848</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="5">
         <v>35</v>
@@ -8527,7 +8624,7 @@
         <v>31</v>
       </c>
       <c r="R47" s="5">
-        <v>1.1379999999999999</v>
+        <v>1.138</v>
       </c>
       <c r="S47" s="5">
         <v>1916.779</v>
@@ -8540,10 +8637,10 @@
       </c>
       <c r="V47" s="5">
         <f>(T47-U47)/(S47-R47)</f>
-        <v>0.58205060342726012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5820506034272601</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="5">
         <v>36</v>
@@ -8593,7 +8690,7 @@
         <v>1.054</v>
       </c>
       <c r="S48" s="5">
-        <v>1873.3030000000001</v>
+        <v>1873.303</v>
       </c>
       <c r="T48" s="5">
         <v>1150</v>
@@ -8603,10 +8700,10 @@
       </c>
       <c r="V48" s="5">
         <f>(T48-U48)/(S48-R48)</f>
-        <v>0.60942748533982394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6094274853398239</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>12</v>
       </c>
@@ -8653,10 +8750,10 @@
         <v>31</v>
       </c>
       <c r="R49" s="9">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S49" s="10">
-        <v>1906.0826669999999</v>
+        <v>1906.082667</v>
       </c>
       <c r="T49" s="10">
         <v>1146.666667</v>
@@ -8666,10 +8763,10 @@
       </c>
       <c r="V49" s="10">
         <f>AVERAGE(V46:V48)</f>
-        <v>0.59627226391602306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.5962722639160231</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="5">
         <v>37</v>
@@ -8715,16 +8812,24 @@
       <c r="Q50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+      <c r="R50" s="6">
+        <v>1.073</v>
+      </c>
+      <c r="S50" s="6">
+        <v>1910.872</v>
+      </c>
+      <c r="T50" s="6">
+        <v>1140</v>
+      </c>
+      <c r="U50" s="6">
+        <v>10</v>
+      </c>
       <c r="V50" s="5" t="e">
         <f>(T50-U50)/(S50-R50)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="5">
         <v>38</v>
@@ -8770,16 +8875,24 @@
       <c r="Q51" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
+      <c r="R51" s="5">
+        <v>1.642</v>
+      </c>
+      <c r="S51" s="5">
+        <v>88.615</v>
+      </c>
+      <c r="T51" s="5">
+        <v>5</v>
+      </c>
+      <c r="U51" s="5">
+        <v>0</v>
+      </c>
       <c r="V51" s="5" t="e">
         <f>(T51-U51)/(S51-R51)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="5">
         <v>39</v>
@@ -8825,16 +8938,24 @@
       <c r="Q52" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
+      <c r="R52" s="5">
+        <v>1.775</v>
+      </c>
+      <c r="S52" s="5">
+        <v>1942.747</v>
+      </c>
+      <c r="T52" s="5">
+        <v>4</v>
+      </c>
+      <c r="U52" s="5">
+        <v>0</v>
+      </c>
       <c r="V52" s="5" t="e">
         <f>(T52-U52)/(S52-R52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>13</v>
       </c>
@@ -8881,10 +9002,10 @@
         <v>23</v>
       </c>
       <c r="R53" s="9">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S53" s="10">
-        <v>1906.0826669999999</v>
+        <v>1906.082667</v>
       </c>
       <c r="T53" s="10">
         <v>1146.666667</v>
@@ -8897,7 +9018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="5">
         <v>40</v>
@@ -8943,16 +9064,24 @@
       <c r="Q54" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
+      <c r="R54" s="6">
+        <v>1.555</v>
+      </c>
+      <c r="S54" s="6">
+        <v>164.558</v>
+      </c>
+      <c r="T54" s="6">
+        <v>4</v>
+      </c>
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
       <c r="V54" s="5" t="e">
         <f>(T54-U54)/(S54-R54)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="5">
         <v>41</v>
@@ -8998,16 +9127,24 @@
       <c r="Q55" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
+      <c r="R55" s="5">
+        <v>1.621</v>
+      </c>
+      <c r="S55" s="5">
+        <v>1891.772</v>
+      </c>
+      <c r="T55" s="5">
+        <v>12</v>
+      </c>
+      <c r="U55" s="5">
+        <v>0</v>
+      </c>
       <c r="V55" s="5" t="e">
         <f>(T55-U55)/(S55-R55)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="5">
         <v>42</v>
@@ -9053,16 +9190,24 @@
       <c r="Q56" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
+      <c r="R56" s="5">
+        <v>1.745</v>
+      </c>
+      <c r="S56" s="5">
+        <v>3403.365</v>
+      </c>
+      <c r="T56" s="5">
+        <v>16</v>
+      </c>
+      <c r="U56" s="5">
+        <v>2</v>
+      </c>
       <c r="V56" s="5" t="e">
         <f>(T56-U56)/(S56-R56)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>14</v>
       </c>
@@ -9109,10 +9254,10 @@
         <v>23</v>
       </c>
       <c r="R57" s="9">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S57" s="10">
-        <v>1906.0826669999999</v>
+        <v>1906.082667</v>
       </c>
       <c r="T57" s="10">
         <v>1146.666667</v>
@@ -9125,7 +9270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="5">
         <v>43</v>
@@ -9171,16 +9316,24 @@
       <c r="Q58" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
+      <c r="R58" s="6">
+        <v>1.592</v>
+      </c>
+      <c r="S58" s="6">
+        <v>638.671</v>
+      </c>
+      <c r="T58" s="6">
+        <v>4</v>
+      </c>
+      <c r="U58" s="6">
+        <v>0</v>
+      </c>
       <c r="V58" s="5" t="e">
         <f>(T58-U58)/(S58-R58)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="5">
         <v>44</v>
@@ -9226,16 +9379,24 @@
       <c r="Q59" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
+      <c r="R59" s="5">
+        <v>1.542</v>
+      </c>
+      <c r="S59" s="5">
+        <v>334.864</v>
+      </c>
+      <c r="T59" s="5">
+        <v>8</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
       <c r="V59" s="5" t="e">
         <f>(T59-U59)/(S59-R59)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="5">
         <v>45</v>
@@ -9281,16 +9442,24 @@
       <c r="Q60" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
+      <c r="R60" s="5">
+        <v>1.685</v>
+      </c>
+      <c r="S60" s="5">
+        <v>3484.107</v>
+      </c>
+      <c r="T60" s="5">
+        <v>9</v>
+      </c>
+      <c r="U60" s="5">
+        <v>3</v>
+      </c>
       <c r="V60" s="5" t="e">
         <f>(T60-U60)/(S60-R60)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>15</v>
       </c>
@@ -9337,10 +9506,10 @@
         <v>23</v>
       </c>
       <c r="R61" s="9">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S61" s="10">
-        <v>1906.0826669999999</v>
+        <v>1906.082667</v>
       </c>
       <c r="T61" s="10">
         <v>1146.666667</v>
@@ -9353,7 +9522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="5">
         <v>46</v>
@@ -9399,16 +9568,24 @@
       <c r="Q62" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
+      <c r="R62" s="6">
+        <v>2.038</v>
+      </c>
+      <c r="S62" s="6">
+        <v>433.463</v>
+      </c>
+      <c r="T62" s="6">
+        <v>8</v>
+      </c>
+      <c r="U62" s="6">
+        <v>0</v>
+      </c>
       <c r="V62" s="5" t="e">
         <f>(T62-U62)/(S62-R62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="5">
         <v>47</v>
@@ -9454,16 +9631,24 @@
       <c r="Q63" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
+      <c r="R63" s="5">
+        <v>1.907</v>
+      </c>
+      <c r="S63" s="5">
+        <v>941.884</v>
+      </c>
+      <c r="T63" s="5">
+        <v>15</v>
+      </c>
+      <c r="U63" s="5">
+        <v>0</v>
+      </c>
       <c r="V63" s="5" t="e">
         <f>(T63-U63)/(S63-R63)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="5">
         <v>48</v>
@@ -9509,16 +9694,24 @@
       <c r="Q64" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
+      <c r="R64" s="5">
+        <v>1.968</v>
+      </c>
+      <c r="S64" s="5">
+        <v>547.596</v>
+      </c>
+      <c r="T64" s="5">
+        <v>6</v>
+      </c>
+      <c r="U64" s="5">
+        <v>0</v>
+      </c>
       <c r="V64" s="5" t="e">
         <f>(T64-U64)/(S64-R64)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>16</v>
       </c>
@@ -9565,10 +9758,10 @@
         <v>23</v>
       </c>
       <c r="R65" s="9">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S65" s="10">
-        <v>1906.0826669999999</v>
+        <v>1906.082667</v>
       </c>
       <c r="T65" s="10">
         <v>1146.666667</v>
@@ -9581,28 +9774,42 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="66" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>1.857</v>
+      </c>
+      <c r="S66">
+        <v>2016.956</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9643,7 +9850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -9665,10 +9872,10 @@
         <v>0.99</v>
       </c>
       <c r="I2" s="6">
-        <v>0.47199999999999998</v>
+        <v>0.472</v>
       </c>
       <c r="J2" s="6">
-        <v>163.68199999999999</v>
+        <v>163.682</v>
       </c>
       <c r="K2" s="6">
         <v>1365</v>
@@ -9678,10 +9885,10 @@
       </c>
       <c r="M2" s="5">
         <f>(K2-L2)/(J2-I2)</f>
-        <v>8.3389498192512725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.338949819251273</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -9719,7 +9926,7 @@
         <v>1.6389967674290085</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
@@ -9757,7 +9964,7 @@
         <v>10.826721702501988</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -9780,7 +9987,7 @@
       </c>
       <c r="I5" s="9">
         <f>AVERAGE(I2:I4)</f>
-        <v>0.51166666666666671</v>
+        <v>0.5116666666666667</v>
       </c>
       <c r="J5" s="10">
         <f>AVERAGE(J2:J4)</f>
@@ -9796,10 +10003,10 @@
       </c>
       <c r="M5" s="10">
         <f>AVERAGE(M2:M4)</f>
-        <v>6.9348894297274226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.934889429727423</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -9826,7 +10033,7 @@
         <v>0.46</v>
       </c>
       <c r="J6" s="6">
-        <v>646.97699999999998</v>
+        <v>646.977</v>
       </c>
       <c r="K6" s="6">
         <v>1186</v>
@@ -9839,7 +10046,7 @@
         <v>1.2714282841750488</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -9866,7 +10073,7 @@
         <v>0.433</v>
       </c>
       <c r="J7" s="5">
-        <v>633.78899999999999</v>
+        <v>633.789</v>
       </c>
       <c r="K7" s="5">
         <v>1270</v>
@@ -9879,7 +10086,7 @@
         <v>1.4115284295088386</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -9903,7 +10110,7 @@
         <v>0.99</v>
       </c>
       <c r="I8" s="5">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="J8" s="5">
         <v>637.899</v>
@@ -9919,7 +10126,7 @@
         <v>1.4369664320876487</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -9944,11 +10151,11 @@
       </c>
       <c r="I9" s="9">
         <f>AVERAGE(I6:I8)</f>
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="J9" s="10">
         <f>AVERAGE(J6:J8)</f>
-        <v>639.55499999999995</v>
+        <v>639.555</v>
       </c>
       <c r="K9" s="10">
         <f>AVERAGE(K6:K8)</f>
@@ -9956,14 +10163,14 @@
       </c>
       <c r="L9" s="10">
         <f>AVERAGE(L6:L8)</f>
-        <v>372.66666666666669</v>
+        <v>372.6666666666667</v>
       </c>
       <c r="M9" s="10">
         <f>AVERAGE(M6:M8)</f>
         <v>1.3733077152571787</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -10003,7 +10210,7 @@
         <v>1.0982701509017299</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -10027,10 +10234,10 @@
         <v>0.99</v>
       </c>
       <c r="I11" s="5">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="J11" s="5">
-        <v>663.30600000000004</v>
+        <v>663.306</v>
       </c>
       <c r="K11" s="5">
         <v>1437</v>
@@ -10043,7 +10250,7 @@
         <v>1.065096077398993</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -10067,10 +10274,10 @@
         <v>0.99</v>
       </c>
       <c r="I12" s="5">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="J12" s="5">
-        <v>668.00099999999998</v>
+        <v>668.001</v>
       </c>
       <c r="K12" s="5">
         <v>1338</v>
@@ -10080,10 +10287,10 @@
       </c>
       <c r="M12" s="5">
         <f>(K12-L12)/(J12-I12)</f>
-        <v>0.99467608612936187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.9946760861293619</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -10108,7 +10315,7 @@
       </c>
       <c r="I13" s="9">
         <f>AVERAGE(I10:I12)</f>
-        <v>0.46566666666666667</v>
+        <v>0.4656666666666667</v>
       </c>
       <c r="J13" s="10">
         <f>AVERAGE(J10:J12)</f>
@@ -10120,14 +10327,14 @@
       </c>
       <c r="L13" s="10">
         <f>AVERAGE(L10:L12)</f>
-        <v>699.66666666666663</v>
+        <v>699.6666666666666</v>
       </c>
       <c r="M13" s="10">
         <f>AVERAGE(M10:M12)</f>
         <v>1.052680771476695</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
@@ -10165,7 +10372,7 @@
         <v>10.269450026657918</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
@@ -10187,7 +10394,7 @@
         <v>0.99</v>
       </c>
       <c r="I15" s="5">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="J15" s="5">
         <v>169.16</v>
@@ -10200,10 +10407,10 @@
       </c>
       <c r="M15" s="5">
         <f>(K15-L15)/(J15-I15)</f>
-        <v>8.4113312902709527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.411331290270953</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
@@ -10225,7 +10432,7 @@
         <v>0.99</v>
       </c>
       <c r="I16" s="5">
-        <v>0.48199999999999998</v>
+        <v>0.482</v>
       </c>
       <c r="J16" s="5">
         <v>286.68</v>
@@ -10238,10 +10445,10 @@
       </c>
       <c r="M16" s="5">
         <f>(K16-L16)/(J16-I16)</f>
-        <v>4.5912270525999483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.591227052599948</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -10280,10 +10487,10 @@
       </c>
       <c r="M17" s="10">
         <f>AVERAGE(M14:M16)</f>
-        <v>7.7573361231762732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.757336123176273</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -10305,10 +10512,10 @@
         <v>0.8</v>
       </c>
       <c r="I18" s="6">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="J18" s="6">
-        <v>107.98099999999999</v>
+        <v>107.981</v>
       </c>
       <c r="K18" s="6">
         <v>1153</v>
@@ -10321,7 +10528,7 @@
         <v>10.701601056213624</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
@@ -10356,10 +10563,10 @@
       </c>
       <c r="M19" s="5">
         <f>(K19-L19)/(J19-I19)</f>
-        <v>7.6578354361083179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.657835436108318</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
@@ -10381,7 +10588,7 @@
         <v>0.8</v>
       </c>
       <c r="I20" s="5">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="J20" s="5">
         <v>128.798</v>
@@ -10394,10 +10601,10 @@
       </c>
       <c r="M20" s="5">
         <f>(K20-L20)/(J20-I20)</f>
-        <v>8.1321711494870659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.132171149487066</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -10436,10 +10643,10 @@
       </c>
       <c r="M21" s="10">
         <f>AVERAGE(M18:M20)</f>
-        <v>8.8305358806030014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.830535880603001</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -10474,10 +10681,10 @@
       </c>
       <c r="M22" s="5">
         <f>(K22-L22)/(J22-I22)</f>
-        <v>4.7759688805647604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.77596888056476</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -10499,10 +10706,10 @@
         <v>0.99</v>
       </c>
       <c r="I23" s="5">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="J23" s="5">
-        <v>141.76400000000001</v>
+        <v>141.764</v>
       </c>
       <c r="K23" s="5">
         <v>635</v>
@@ -10512,10 +10719,10 @@
       </c>
       <c r="M23" s="5">
         <f>(K23-L23)/(J23-I23)</f>
-        <v>4.4940480403119647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.494048040311965</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -10537,10 +10744,10 @@
         <v>0.99</v>
       </c>
       <c r="I24" s="5">
-        <v>0.47599999999999998</v>
+        <v>0.476</v>
       </c>
       <c r="J24" s="5">
-        <v>189.73099999999999</v>
+        <v>189.731</v>
       </c>
       <c r="K24" s="5">
         <v>618</v>
@@ -10553,7 +10760,7 @@
         <v>3.2548677709968032</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>6</v>
       </c>
@@ -10584,7 +10791,7 @@
       </c>
       <c r="K25" s="10">
         <f>AVERAGE(K22:K24)</f>
-        <v>639.33333333333337</v>
+        <v>639.3333333333334</v>
       </c>
       <c r="L25" s="10">
         <f>AVERAGE(L22:L24)</f>
@@ -10592,29 +10799,29 @@
       </c>
       <c r="M25" s="10">
         <f>AVERAGE(M22:M24)</f>
-        <v>4.1749615639578428</v>
+        <v>4.174961563957843</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="20.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10658,7 +10865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -10683,10 +10890,10 @@
         <v>50</v>
       </c>
       <c r="J2" s="6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="K2" s="6">
-        <v>49.860999999999997</v>
+        <v>49.861</v>
       </c>
       <c r="L2" s="6">
         <v>1259</v>
@@ -10699,7 +10906,7 @@
         <v>25.267932404768594</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -10724,7 +10931,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="K3" s="5">
         <v>199.316</v>
@@ -10737,10 +10944,10 @@
       </c>
       <c r="N3" s="5">
         <f>(L3-M3)/(K3-J3)</f>
-        <v>6.7091866177570143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.709186617757014</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
@@ -10765,10 +10972,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="K4" s="5">
-        <v>201.29499999999999</v>
+        <v>201.295</v>
       </c>
       <c r="L4" s="5">
         <v>1371</v>
@@ -10778,10 +10985,10 @@
       </c>
       <c r="N4" s="5">
         <f>(L4-M4)/(K4-J4)</f>
-        <v>6.7130101216888374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.713010121688837</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -10807,7 +11014,7 @@
       </c>
       <c r="J5" s="9">
         <f>AVERAGE(J2:J4)</f>
-        <v>3.8666666666666669E-2</v>
+        <v>0.03866666666666667</v>
       </c>
       <c r="K5" s="10">
         <f>AVERAGE(K2:K4)</f>
@@ -10826,7 +11033,7 @@
         <v>12.896709714738149</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -10853,10 +11060,10 @@
         <v>50</v>
       </c>
       <c r="J6" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="K6" s="6">
-        <v>191.60599999999999</v>
+        <v>191.606</v>
       </c>
       <c r="L6" s="6">
         <v>1189</v>
@@ -10869,7 +11076,7 @@
         <v>5.8985347622055295</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -10896,10 +11103,10 @@
         <v>50</v>
       </c>
       <c r="J7" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="K7" s="5">
-        <v>192.59200000000001</v>
+        <v>192.592</v>
       </c>
       <c r="L7" s="5">
         <v>1314</v>
@@ -10909,10 +11116,10 @@
       </c>
       <c r="N7" s="5">
         <f>(L7-M7)/(K7-J7)</f>
-        <v>6.6265404369569838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.626540436956984</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -10939,10 +11146,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="K8" s="5">
-        <v>193.21799999999999</v>
+        <v>193.218</v>
       </c>
       <c r="L8" s="5">
         <v>1320</v>
@@ -10952,10 +11159,10 @@
       </c>
       <c r="N8" s="5">
         <f>(L8-M8)/(K8-J8)</f>
-        <v>6.6569693706938056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.656969370693806</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -10983,7 +11190,7 @@
       </c>
       <c r="J9" s="9">
         <f>AVERAGE(J6:J8)</f>
-        <v>3.4333333333333334E-2</v>
+        <v>0.034333333333333334</v>
       </c>
       <c r="K9" s="10">
         <f>AVERAGE(K6:K8)</f>
@@ -10999,10 +11206,10 @@
       </c>
       <c r="N9" s="10">
         <f>AVERAGE(N6:N8)</f>
-        <v>6.3940148566187736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.394014856618774</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -11027,10 +11234,10 @@
         <v>50</v>
       </c>
       <c r="J10" s="6">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="K10" s="6">
-        <v>196.33799999999999</v>
+        <v>196.338</v>
       </c>
       <c r="L10" s="6">
         <v>1246</v>
@@ -11043,7 +11250,7 @@
         <v>6.3269859705963265</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -11068,10 +11275,10 @@
         <v>50</v>
       </c>
       <c r="J11" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="K11" s="5">
-        <v>63.030999999999999</v>
+        <v>63.031</v>
       </c>
       <c r="L11" s="5">
         <v>1421</v>
@@ -11084,7 +11291,7 @@
         <v>22.555913585929936</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -11109,10 +11316,10 @@
         <v>50</v>
       </c>
       <c r="J12" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="K12" s="5">
-        <v>82.935000000000002</v>
+        <v>82.935</v>
       </c>
       <c r="L12" s="5">
         <v>1194</v>
@@ -11125,7 +11332,7 @@
         <v>14.403068794557232</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -11151,7 +11358,7 @@
       </c>
       <c r="J13" s="9">
         <f>AVERAGE(J10:J12)</f>
-        <v>3.4666666666666672E-2</v>
+        <v>0.03466666666666667</v>
       </c>
       <c r="K13" s="10">
         <f>AVERAGE(K10:K12)</f>
@@ -11170,7 +11377,7 @@
         <v>14.428656117027833</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
@@ -11195,10 +11402,10 @@
         <v>50</v>
       </c>
       <c r="J14" s="6">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="K14" s="6">
-        <v>161.74100000000001</v>
+        <v>161.741</v>
       </c>
       <c r="L14" s="6">
         <v>1245</v>
@@ -11208,10 +11415,10 @@
       </c>
       <c r="N14" s="5">
         <f>(L14-M14)/(K14-J14)</f>
-        <v>7.6993481836959337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.699348183695934</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
@@ -11236,10 +11443,10 @@
         <v>50</v>
       </c>
       <c r="J15" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="K15" s="5">
-        <v>205.53800000000001</v>
+        <v>205.538</v>
       </c>
       <c r="L15" s="5">
         <v>1243</v>
@@ -11249,10 +11456,10 @@
       </c>
       <c r="N15" s="5">
         <f>(L15-M15)/(K15-J15)</f>
-        <v>6.0290210504802779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.029021050480278</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
@@ -11277,10 +11484,10 @@
         <v>50</v>
       </c>
       <c r="J16" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="K16" s="5">
-        <v>197.64699999999999</v>
+        <v>197.647</v>
       </c>
       <c r="L16" s="5">
         <v>1316</v>
@@ -11293,7 +11500,7 @@
         <v>6.649326464724159</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -11319,7 +11526,7 @@
       </c>
       <c r="J17" s="9">
         <f>AVERAGE(J14:J16)</f>
-        <v>3.4666666666666672E-2</v>
+        <v>0.03466666666666667</v>
       </c>
       <c r="K17" s="10">
         <f>AVERAGE(K14:K16)</f>
@@ -11338,7 +11545,7 @@
         <v>6.7925652329667905</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -11363,7 +11570,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="K18" s="6">
         <v>247.02</v>
@@ -11376,10 +11583,10 @@
       </c>
       <c r="N18" s="5">
         <f>(L18-M18)/(K18-J18)</f>
-        <v>5.2637545956626663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.263754595662666</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
@@ -11404,10 +11611,10 @@
         <v>50</v>
       </c>
       <c r="J19" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="K19" s="5">
-        <v>268.77300000000002</v>
+        <v>268.773</v>
       </c>
       <c r="L19" s="5">
         <v>1230</v>
@@ -11417,10 +11624,10 @@
       </c>
       <c r="N19" s="5">
         <f>(L19-M19)/(K19-J19)</f>
-        <v>4.3800238166120868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.380023816612087</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
@@ -11445,10 +11652,10 @@
         <v>50</v>
       </c>
       <c r="J20" s="5">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="K20" s="5">
-        <v>256.17399999999998</v>
+        <v>256.174</v>
       </c>
       <c r="L20" s="5">
         <v>1450</v>
@@ -11458,13 +11665,13 @@
       </c>
       <c r="N20" s="5">
         <f>(L20-M20)/(K20-J20)</f>
-        <v>5.6534453610903972</v>
+        <v>5.653445361090397</v>
       </c>
       <c r="Q20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -11490,7 +11697,7 @@
       </c>
       <c r="J21" s="9">
         <f>AVERAGE(J18:J20)</f>
-        <v>4.933333333333334E-2</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="K21" s="10">
         <f>AVERAGE(K18:K20)</f>
@@ -11506,10 +11713,10 @@
       </c>
       <c r="N21" s="10">
         <f>AVERAGE(N18:N20)</f>
-        <v>5.0990745911217168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.099074591121717</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -11534,7 +11741,7 @@
         <v>50</v>
       </c>
       <c r="J22" s="6">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="K22" s="6">
         <v>309.517</v>
@@ -11547,10 +11754,10 @@
       </c>
       <c r="N22" s="5">
         <f>(L22-M22)/(K22-J22)</f>
-        <v>4.1494178211678481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.149417821167848</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -11575,10 +11782,10 @@
         <v>50</v>
       </c>
       <c r="J23" s="5">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="K23" s="5">
-        <v>321.33699999999999</v>
+        <v>321.337</v>
       </c>
       <c r="L23" s="5">
         <v>1268</v>
@@ -11591,7 +11798,7 @@
         <v>3.940549373589604</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -11616,7 +11823,7 @@
         <v>50</v>
       </c>
       <c r="J24" s="5">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="K24" s="5">
         <v>321.68</v>
@@ -11632,7 +11839,7 @@
         <v>3.8026596852778303</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>6</v>
       </c>
@@ -11658,7 +11865,7 @@
       </c>
       <c r="J25" s="9">
         <f>AVERAGE(J22:J24)</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0.067</v>
       </c>
       <c r="K25" s="10">
         <f>AVERAGE(K22:K24)</f>
@@ -11677,7 +11884,7 @@
         <v>3.9642089600117614</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
         <v>19</v>
@@ -11702,7 +11909,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="6">
-        <v>6.9000000000000006E-2</v>
+        <v>0.069</v>
       </c>
       <c r="K26" s="6">
         <v>29.666</v>
@@ -11715,10 +11922,10 @@
       </c>
       <c r="N26" s="5">
         <f>(L26-M26)/(K26-J26)</f>
-        <v>46.964219346555389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46.96421934655539</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
         <v>20</v>
@@ -11743,7 +11950,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="K27" s="5">
         <v>457.822</v>
@@ -11756,10 +11963,10 @@
       </c>
       <c r="N27" s="5">
         <f>(L27-M27)/(K27-J27)</f>
-        <v>0.39759954734820763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.3975995473482076</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>21</v>
@@ -11784,10 +11991,10 @@
         <v>100</v>
       </c>
       <c r="J28" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="K28" s="5">
-        <v>340.72399999999999</v>
+        <v>340.724</v>
       </c>
       <c r="L28" s="5">
         <v>1186</v>
@@ -11800,7 +12007,7 @@
         <v>3.4609287852991257</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>7</v>
       </c>
@@ -11826,11 +12033,11 @@
       </c>
       <c r="J29" s="9">
         <f>AVERAGE(J26:J28)</f>
-        <v>6.9333333333333344E-2</v>
+        <v>0.06933333333333334</v>
       </c>
       <c r="K29" s="10">
         <f>AVERAGE(K26:K28)</f>
-        <v>276.07066666666668</v>
+        <v>276.0706666666667</v>
       </c>
       <c r="L29" s="10">
         <f>AVERAGE(L26:L28)</f>
@@ -11838,14 +12045,14 @@
       </c>
       <c r="M29" s="10">
         <f>AVERAGE(M26:M28)</f>
-        <v>406.66666666666669</v>
+        <v>406.6666666666667</v>
       </c>
       <c r="N29" s="10">
         <f>AVERAGE(N26:N28)</f>
         <v>16.940915893067572</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
         <v>22</v>
@@ -11870,10 +12077,10 @@
         <v>100</v>
       </c>
       <c r="J30" s="6">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="K30" s="6">
-        <v>417.62700000000001</v>
+        <v>417.627</v>
       </c>
       <c r="L30" s="6">
         <v>20</v>
@@ -11883,10 +12090,10 @@
       </c>
       <c r="N30" s="5">
         <f>(L30-M30)/(K30-J30)</f>
-        <v>2.3948367320057954E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.023948367320057954</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
         <v>23</v>
@@ -11911,10 +12118,10 @@
         <v>100</v>
       </c>
       <c r="J31" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>0.067</v>
       </c>
       <c r="K31" s="5">
-        <v>395.26900000000001</v>
+        <v>395.269</v>
       </c>
       <c r="L31" s="5">
         <v>12</v>
@@ -11924,10 +12131,10 @@
       </c>
       <c r="N31" s="5">
         <f>(L31-M31)/(K31-J31)</f>
-        <v>1.5182109402280352E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.015182109402280352</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
         <v>24</v>
@@ -11952,10 +12159,10 @@
         <v>100</v>
       </c>
       <c r="J32" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="K32" s="5">
-        <v>65.778000000000006</v>
+        <v>65.778</v>
       </c>
       <c r="L32" s="5">
         <v>18</v>
@@ -11968,7 +12175,7 @@
         <v>0.27396009314643166</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>8</v>
       </c>
@@ -11994,11 +12201,11 @@
       </c>
       <c r="J33" s="9">
         <f>AVERAGE(J30:J32)</f>
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="K33" s="10">
         <f>AVERAGE(K30:K32)</f>
-        <v>292.89133333333331</v>
+        <v>292.8913333333333</v>
       </c>
       <c r="L33" s="10">
         <f>AVERAGE(L30:L32)</f>
@@ -12015,6 +12222,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/server/resource/Tests.xlsx
+++ b/server/resource/Tests.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Genetic Algorithm" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Island Model" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Simulated Annealing" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Tabu Search" state="visible" r:id="rId7"/>
+    <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Island Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Simulated Annealing" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabu Search" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,11 +31,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>p</t>
     </r>
@@ -47,11 +47,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>g</t>
     </r>
@@ -63,11 +63,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>e</t>
     </r>
@@ -79,11 +79,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>c</t>
     </r>
@@ -95,11 +95,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>k</t>
     </r>
@@ -111,21 +111,21 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>c</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -137,11 +137,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -153,21 +153,21 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>mg</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -179,11 +179,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -195,11 +195,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>s</t>
     </r>
@@ -211,11 +211,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>i</t>
     </r>
@@ -227,11 +227,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>s</t>
     </r>
@@ -243,11 +243,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>f</t>
     </r>
@@ -259,11 +259,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>s</t>
     </r>
@@ -275,11 +275,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>f</t>
     </r>
@@ -318,11 +318,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>i</t>
     </r>
@@ -334,11 +334,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>st</t>
     </r>
@@ -350,11 +350,11 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>it</t>
     </r>
@@ -366,21 +366,21 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>mig</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -407,21 +407,21 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -433,21 +433,21 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
-        <family val="1"/>
         <vertAlign val="subscript"/>
         <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>tl</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -459,41 +459,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -599,7 +607,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,29 +945,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="T75" sqref="T75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="18" width="20.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="20.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -1050,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="6">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="O2" s="6">
-        <v>1756.805</v>
+        <v>1756.8050000000001</v>
       </c>
       <c r="P2" s="6">
         <v>1112</v>
@@ -1063,10 +1072,10 @@
       </c>
       <c r="R2" s="5">
         <f>(P2-Q2)/(O2-N2)</f>
-        <v>0.6162608571835398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61626085718353985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -1101,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O3" s="5">
         <v>2243.348</v>
@@ -1114,10 +1123,10 @@
       </c>
       <c r="R3" s="5">
         <f>(P3-Q3)/(O3-N3)</f>
-        <v>0.5030333625282957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.50303336252829567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -1152,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="5">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O4" s="5">
         <v>1811.941</v>
@@ -1165,10 +1174,10 @@
       </c>
       <c r="R4" s="5">
         <f>(P4-Q4)/(O4-N4)</f>
-        <v>0.6129217149880894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61292171498808945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1204,7 +1213,7 @@
       </c>
       <c r="N5" s="9">
         <f>AVERAGE(N2:N4)</f>
-        <v>0.9833333333333333</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="O5" s="10">
         <f>AVERAGE(O2:O4)</f>
@@ -1220,10 +1229,10 @@
       </c>
       <c r="R5" s="10">
         <f>AVERAGE(R2:R4)</f>
-        <v>0.5774053115666417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.57740531156664165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>4</v>
@@ -1258,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="11">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="O6" s="12">
         <v>1779.066</v>
@@ -1274,7 +1283,7 @@
         <v>0.6501303353851432</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>5</v>
@@ -1309,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="11">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O7" s="12">
-        <v>1873.295</v>
+        <v>1873.2950000000001</v>
       </c>
       <c r="P7" s="12">
         <v>1148</v>
@@ -1322,10 +1331,10 @@
       </c>
       <c r="R7" s="5">
         <f>(P7-Q7)/(O7-N7)</f>
-        <v>0.6008485583907299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.60084855839072993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>6</v>
@@ -1373,10 +1382,10 @@
       </c>
       <c r="R8" s="5">
         <f>(P8-Q8)/(O8-N8)</f>
-        <v>0.5870484601408811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58704846014088108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -1412,7 +1421,7 @@
       </c>
       <c r="N9" s="9">
         <f>AVERAGE(N6:N8)</f>
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="O9" s="10">
         <f>AVERAGE(O6:O8)</f>
@@ -1428,10 +1437,10 @@
       </c>
       <c r="R9" s="10">
         <f>AVERAGE(R6:R8)</f>
-        <v>0.6126757846389181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61267578463891814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>7</v>
@@ -1466,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="N10" s="5">
-        <v>1.031</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="O10" s="5">
-        <v>1887.103</v>
+        <v>1887.1030000000001</v>
       </c>
       <c r="P10" s="5">
         <v>1169</v>
@@ -1479,10 +1488,10 @@
       </c>
       <c r="R10" s="5">
         <f>(P10-Q10)/(O10-N10)</f>
-        <v>0.5609541947497232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.56095419474972319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>8</v>
@@ -1517,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="O11" s="5">
-        <v>1897.284</v>
+        <v>1897.2840000000001</v>
       </c>
       <c r="P11" s="5">
         <v>1155</v>
@@ -1530,10 +1539,10 @@
       </c>
       <c r="R11" s="5">
         <f>(P11-Q11)/(O11-N11)</f>
-        <v>0.5473759703003712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.54737597030037122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>9</v>
@@ -1568,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O12" s="5">
-        <v>1870.199</v>
+        <v>1870.1990000000001</v>
       </c>
       <c r="P12" s="5">
         <v>1120</v>
@@ -1581,10 +1590,10 @@
       </c>
       <c r="R12" s="5">
         <f>(P12-Q12)/(O12-N12)</f>
-        <v>0.5301585874991708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.53015858749917077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -1620,11 +1629,11 @@
       </c>
       <c r="N13" s="10">
         <f>AVERAGE(N10:N12)</f>
-        <v>0.9806666666666666</v>
+        <v>0.98066666666666658</v>
       </c>
       <c r="O13" s="10">
         <f>AVERAGE(O10:O12)</f>
-        <v>1884.862</v>
+        <v>1884.8620000000001</v>
       </c>
       <c r="P13" s="10">
         <f>AVERAGE(P10:P12)</f>
@@ -1636,10 +1645,10 @@
       </c>
       <c r="R13" s="10">
         <f>AVERAGE(R10:R12)</f>
-        <v>0.5461629175164218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.54616291751642176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>10</v>
@@ -1676,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="5">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="O14" s="5">
         <v>1792.713</v>
@@ -1689,10 +1698,10 @@
       </c>
       <c r="R14" s="5">
         <f>(P14-Q14)/(O14-N14)</f>
-        <v>0.6262006364698804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.62620063646988045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>11</v>
@@ -1729,10 +1738,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="5">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="O15" s="5">
-        <v>1841.091</v>
+        <v>1841.0909999999999</v>
       </c>
       <c r="P15" s="5">
         <v>1165</v>
@@ -1742,10 +1751,10 @@
       </c>
       <c r="R15" s="5">
         <f>(P15-Q15)/(O15-N15)</f>
-        <v>0.5896229619288333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58962296192883334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>12</v>
@@ -1785,7 +1794,7 @@
         <v>1.085</v>
       </c>
       <c r="O16" s="5">
-        <v>1888.323</v>
+        <v>1888.3230000000001</v>
       </c>
       <c r="P16" s="5">
         <v>1196</v>
@@ -1795,10 +1804,10 @@
       </c>
       <c r="R16" s="5">
         <f>(P16-Q16)/(O16-N16)</f>
-        <v>0.5849818623830169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58498186238301686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -1840,7 +1849,7 @@
       </c>
       <c r="O17" s="10">
         <f>AVERAGE(O14:O16)</f>
-        <v>1840.709</v>
+        <v>1840.7090000000001</v>
       </c>
       <c r="P17" s="10">
         <f>AVERAGE(P14:P16)</f>
@@ -1852,10 +1861,10 @@
       </c>
       <c r="R17" s="10">
         <f>AVERAGE(R14:R16)</f>
-        <v>0.6002684869272435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.60026848692724355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>13</v>
@@ -1892,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="5">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O18" s="5">
         <v>1857.568</v>
@@ -1905,10 +1914,10 @@
       </c>
       <c r="R18" s="5">
         <f>(P18-Q18)/(O18-N18)</f>
-        <v>0.5849417885968669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58494178859686685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>14</v>
@@ -1945,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="5">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="O19" s="5">
         <v>1852.181</v>
@@ -1961,7 +1970,7 @@
         <v>0.5796208966027625</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>15</v>
@@ -1998,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="5">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O20" s="5">
         <v>1886.702</v>
@@ -2011,10 +2020,10 @@
       </c>
       <c r="R20" s="5">
         <f>(P20-Q20)/(O20-N20)</f>
-        <v>0.5796093125663859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.57960931256638593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>5</v>
       </c>
@@ -2052,7 +2061,7 @@
       </c>
       <c r="N21" s="10">
         <f>AVERAGE(N18:N20)</f>
-        <v>0.9643333333333333</v>
+        <v>0.96433333333333326</v>
       </c>
       <c r="O21" s="10">
         <f>AVERAGE(O18:O20)</f>
@@ -2064,14 +2073,14 @@
       </c>
       <c r="Q21" s="10">
         <f>AVERAGE(Q18:Q20)</f>
-        <v>80.33333333333333</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="R21" s="10">
         <f>AVERAGE(R18:R20)</f>
-        <v>0.5813906659220051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58139066592200506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>16</v>
@@ -2124,7 +2133,7 @@
         <v>0.6040342591420127</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>17</v>
@@ -2164,7 +2173,7 @@
         <v>0.995</v>
       </c>
       <c r="O23" s="5">
-        <v>1882.812</v>
+        <v>1882.8119999999999</v>
       </c>
       <c r="P23" s="5">
         <v>1150</v>
@@ -2174,10 +2183,10 @@
       </c>
       <c r="R23" s="5">
         <f>(P23-Q23)/(O23-N23)</f>
-        <v>0.580290219505935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58029021950593496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>18</v>
@@ -2227,10 +2236,10 @@
       </c>
       <c r="R24" s="5">
         <f>(P24-Q24)/(O24-N24)</f>
-        <v>0.5743629375251678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.57436293752516776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>6</v>
       </c>
@@ -2284,10 +2293,10 @@
       </c>
       <c r="R25" s="10">
         <f>AVERAGE(R22:R24)</f>
-        <v>0.5862291387243718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58622913872437177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
         <v>19</v>
@@ -2322,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="5">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="O26" s="5">
-        <v>1865.142</v>
+        <v>1865.1420000000001</v>
       </c>
       <c r="P26" s="5">
         <v>1172</v>
@@ -2335,10 +2344,10 @@
       </c>
       <c r="R26" s="5">
         <f>(P26-Q26)/(O26-N26)</f>
-        <v>0.6195730363960268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61957303639602679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
         <v>20</v>
@@ -2373,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="5">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="O27" s="5">
         <v>1878.597</v>
@@ -2386,10 +2395,10 @@
       </c>
       <c r="R27" s="5">
         <f>(P27-Q27)/(O27-N27)</f>
-        <v>0.62950828053701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.62950828053701002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4">
         <v>21</v>
@@ -2424,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="5">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="O28" s="5">
-        <v>1811.015</v>
+        <v>1811.0150000000001</v>
       </c>
       <c r="P28" s="5">
         <v>1169</v>
@@ -2437,10 +2446,10 @@
       </c>
       <c r="R28" s="5">
         <f>(P28-Q28)/(O28-N28)</f>
-        <v>0.6342362729005978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63423627290059781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>7</v>
       </c>
@@ -2476,7 +2485,7 @@
       </c>
       <c r="N29" s="10">
         <f>AVERAGE(N26:N28)</f>
-        <v>0.9533333333333333</v>
+        <v>0.95333333333333325</v>
       </c>
       <c r="O29" s="10">
         <f>AVERAGE(O26:O28)</f>
@@ -2492,10 +2501,10 @@
       </c>
       <c r="R29" s="10">
         <f>AVERAGE(R26:R28)</f>
-        <v>0.6277725299445449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.62777252994454491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>22</v>
@@ -2530,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="5">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O30" s="5">
-        <v>1789.718</v>
+        <v>1789.7180000000001</v>
       </c>
       <c r="P30" s="5">
         <v>1196</v>
@@ -2543,10 +2552,10 @@
       </c>
       <c r="R30" s="5">
         <f>(P30-Q30)/(O30-N30)</f>
-        <v>0.6624767574082792</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.66247675740827916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
         <v>23</v>
@@ -2581,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="5">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="O31" s="5">
         <v>1797.59</v>
@@ -2594,10 +2603,10 @@
       </c>
       <c r="R31" s="5">
         <f>(P31-Q31)/(O31-N31)</f>
-        <v>0.6389609204154136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63896092041541364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
         <v>24</v>
@@ -2632,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="N32" s="5">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="O32" s="5">
-        <v>1802.613</v>
+        <v>1802.6130000000001</v>
       </c>
       <c r="P32" s="5">
         <v>1129</v>
@@ -2645,10 +2654,10 @@
       </c>
       <c r="R32" s="5">
         <f>(P32-Q32)/(O32-N32)</f>
-        <v>0.615544809886016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61554480988601601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>8</v>
       </c>
@@ -2684,7 +2693,7 @@
       </c>
       <c r="N33" s="10">
         <f>AVERAGE(N30:N32)</f>
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O33" s="10">
         <f>AVERAGE(O30:O32)</f>
@@ -2700,10 +2709,10 @@
       </c>
       <c r="R33" s="10">
         <f>AVERAGE(R30:R32)</f>
-        <v>0.6389941625699028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63899416256990282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
         <v>25</v>
@@ -2738,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="N34" s="5">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O34" s="5">
-        <v>1812.151</v>
+        <v>1812.1510000000001</v>
       </c>
       <c r="P34" s="5">
         <v>1159</v>
@@ -2751,10 +2760,10 @@
       </c>
       <c r="R34" s="5">
         <f>(P34-Q34)/(O34-N34)</f>
-        <v>0.6354906335526908</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63549063355269075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
         <v>26</v>
@@ -2792,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <v>1799.698</v>
+        <v>1799.6980000000001</v>
       </c>
       <c r="P35" s="5">
         <v>1196</v>
@@ -2802,10 +2811,10 @@
       </c>
       <c r="R35" s="5">
         <f>(P35-Q35)/(O35-N35)</f>
-        <v>0.6560300839829699</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.65603008398296991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
         <v>27</v>
@@ -2840,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="N36" s="5">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="O36" s="5">
-        <v>1814.112</v>
+        <v>1814.1120000000001</v>
       </c>
       <c r="P36" s="5">
         <v>1137</v>
@@ -2856,7 +2865,7 @@
         <v>0.6154976348014275</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>9</v>
       </c>
@@ -2892,7 +2901,7 @@
       </c>
       <c r="N37" s="10">
         <f>AVERAGE(N34:N36)</f>
-        <v>0.9656666666666666</v>
+        <v>0.96566666666666656</v>
       </c>
       <c r="O37" s="10">
         <f>AVERAGE(O34:O36)</f>
@@ -2908,10 +2917,10 @@
       </c>
       <c r="R37" s="10">
         <f>AVERAGE(R34:R36)</f>
-        <v>0.6356727841123627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63567278411236272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <v>28</v>
@@ -2946,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="N38" s="5">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="O38" s="5">
-        <v>1793.273</v>
+        <v>1793.2729999999999</v>
       </c>
       <c r="P38" s="5">
         <v>1174</v>
@@ -2959,10 +2968,10 @@
       </c>
       <c r="R38" s="5">
         <f>(P38-Q38)/(O38-N38)</f>
-        <v>0.6505549244664446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.65055492446644458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>29</v>
@@ -2997,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="5">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="O39" s="5">
         <v>1796.327</v>
@@ -3010,10 +3019,10 @@
       </c>
       <c r="R39" s="5">
         <f>(P39-Q39)/(O39-N39)</f>
-        <v>0.6054489289625156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.60544892896251556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
         <v>30</v>
@@ -3048,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="5">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="O40" s="5">
         <v>1794.922</v>
@@ -3061,10 +3070,10 @@
       </c>
       <c r="R40" s="5">
         <f>(P40-Q40)/(O40-N40)</f>
-        <v>0.6577612482747703</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.65776124827477034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>10</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>0.6379217005679102</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>31</v>
@@ -3154,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="5">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O42" s="5">
-        <v>1846.467</v>
+        <v>1846.4670000000001</v>
       </c>
       <c r="P42" s="5">
         <v>1124</v>
@@ -3167,10 +3176,10 @@
       </c>
       <c r="R42" s="5">
         <f>(P42-Q42)/(O42-N42)</f>
-        <v>0.6036245650272715</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.60362456502727146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
         <v>32</v>
@@ -3208,7 +3217,7 @@
         <v>1.036</v>
       </c>
       <c r="O43" s="5">
-        <v>1848.312</v>
+        <v>1848.3119999999999</v>
       </c>
       <c r="P43" s="5">
         <v>1154</v>
@@ -3218,10 +3227,10 @@
       </c>
       <c r="R43" s="5">
         <f>(P43-Q43)/(O43-N43)</f>
-        <v>0.6165835532968544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61658355329685444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4">
         <v>33</v>
@@ -3256,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="5">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O44" s="5">
         <v>1826.518</v>
@@ -3269,10 +3278,10 @@
       </c>
       <c r="R44" s="5">
         <f>(P44-Q44)/(O44-N44)</f>
-        <v>0.6233683142652744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.62336831426527439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>11</v>
       </c>
@@ -3308,7 +3317,7 @@
       </c>
       <c r="N45" s="10">
         <f>AVERAGE(N42:N44)</f>
-        <v>0.979</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="O45" s="10">
         <f>AVERAGE(O42:O44)</f>
@@ -3324,10 +3333,10 @@
       </c>
       <c r="R45" s="10">
         <f>AVERAGE(R42:R44)</f>
-        <v>0.6145254775298001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61452547752980013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>34</v>
@@ -3362,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="5">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="O46" s="5">
         <v>1878.146</v>
@@ -3378,7 +3387,7 @@
         <v>0.6206084626489593</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
         <v>35</v>
@@ -3413,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="5">
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="O47" s="5">
         <v>1886.77</v>
@@ -3426,10 +3435,10 @@
       </c>
       <c r="R47" s="5">
         <f>(P47-Q47)/(O47-N47)</f>
-        <v>0.6066458476841666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.60664584768416663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
         <v>36</v>
@@ -3464,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="5">
-        <v>1.001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="O48" s="5">
         <v>1870.348</v>
@@ -3477,10 +3486,10 @@
       </c>
       <c r="R48" s="5">
         <f>(P48-Q48)/(O48-N48)</f>
-        <v>0.618932707517652</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61893270751765195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>12</v>
       </c>
@@ -3516,7 +3525,7 @@
       </c>
       <c r="N49" s="10">
         <f>AVERAGE(N46:N48)</f>
-        <v>0.9826666666666667</v>
+        <v>0.98266666666666669</v>
       </c>
       <c r="O49" s="10">
         <f>AVERAGE(O46:O48)</f>
@@ -3532,10 +3541,10 @@
       </c>
       <c r="R49" s="10">
         <f>AVERAGE(R46:R48)</f>
-        <v>0.615395672616926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61539567261692596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
         <v>37</v>
@@ -3570,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="N50" s="5">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="O50" s="5">
-        <v>1833.959</v>
+        <v>1833.9590000000001</v>
       </c>
       <c r="P50" s="5">
         <v>1175</v>
@@ -3583,10 +3592,10 @@
       </c>
       <c r="R50" s="5">
         <f>(P50-Q50)/(O50-N50)</f>
-        <v>0.6306621843824911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63066218438249111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>38</v>
@@ -3621,10 +3630,10 @@
         <v>1</v>
       </c>
       <c r="N51" s="5">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="O51" s="5">
-        <v>1823.245</v>
+        <v>1823.2449999999999</v>
       </c>
       <c r="P51" s="5">
         <v>1143</v>
@@ -3634,10 +3643,10 @@
       </c>
       <c r="R51" s="5">
         <f>(P51-Q51)/(O51-N51)</f>
-        <v>0.6201080744107739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.62010807441077387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
         <v>39</v>
@@ -3672,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="5">
-        <v>1.061</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="O52" s="5">
         <v>1862.086</v>
@@ -3685,10 +3694,10 @@
       </c>
       <c r="R52" s="5">
         <f>(P52-Q52)/(O52-N52)</f>
-        <v>0.610416302843863</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.61041630284386295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>13</v>
       </c>
@@ -3740,10 +3749,10 @@
       </c>
       <c r="R53" s="10">
         <f>AVERAGE(R50:R52)</f>
-        <v>0.6203955205457093</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.62039552054570934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>40</v>
@@ -3780,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="5">
-        <v>1.011</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="O54" s="5">
         <v>1971.66</v>
@@ -3793,10 +3802,10 @@
       </c>
       <c r="R54" s="5">
         <f>(P54-Q54)/(O54-N54)</f>
-        <v>0.5673257896256512</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.56732578962565117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
         <v>41</v>
@@ -3833,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="5">
-        <v>1.011</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="O55" s="5">
         <v>1960.989</v>
@@ -3846,10 +3855,10 @@
       </c>
       <c r="R55" s="5">
         <f>(P55-Q55)/(O55-N55)</f>
-        <v>0.5852106503236261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58521065032362607</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
         <v>42</v>
@@ -3889,7 +3898,7 @@
         <v>1.046</v>
       </c>
       <c r="O56" s="5">
-        <v>2009.647</v>
+        <v>2009.6469999999999</v>
       </c>
       <c r="P56" s="5">
         <v>1186</v>
@@ -3899,10 +3908,10 @@
       </c>
       <c r="R56" s="5">
         <f>(P56-Q56)/(O56-N56)</f>
-        <v>0.5800056855492953</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.58000568554929532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>14</v>
       </c>
@@ -3956,10 +3965,10 @@
       </c>
       <c r="R57" s="10">
         <f>AVERAGE(R54:R56)</f>
-        <v>0.5775140418328575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.57751404183285748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
         <v>43</v>
@@ -3996,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="5">
-        <v>1.086</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="O58" s="5">
         <v>2222.317</v>
@@ -4009,10 +4018,10 @@
       </c>
       <c r="R58" s="5">
         <f>(P58-Q58)/(O58-N58)</f>
-        <v>0.5172807330709862</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.51728073307098621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4">
         <v>44</v>
@@ -4052,7 +4061,7 @@
         <v>1.117</v>
       </c>
       <c r="O59" s="5">
-        <v>2138.113</v>
+        <v>2138.1129999999998</v>
       </c>
       <c r="P59" s="5">
         <v>1152</v>
@@ -4062,10 +4071,10 @@
       </c>
       <c r="R59" s="5">
         <f>(P59-Q59)/(O59-N59)</f>
-        <v>0.533459117377852</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.53345911737785201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4">
         <v>45</v>
@@ -4102,10 +4111,10 @@
         <v>1</v>
       </c>
       <c r="N60" s="5">
-        <v>1.201</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="O60" s="5">
-        <v>2229.421</v>
+        <v>2229.4209999999998</v>
       </c>
       <c r="P60" s="5">
         <v>1159</v>
@@ -4118,7 +4127,7 @@
         <v>0.5165558158530128</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>15</v>
       </c>
@@ -4160,7 +4169,7 @@
       </c>
       <c r="O61" s="10">
         <f>AVERAGE(O58:O60)</f>
-        <v>2196.617</v>
+        <v>2196.6170000000002</v>
       </c>
       <c r="P61" s="10">
         <f>AVERAGE(P58:P60)</f>
@@ -4172,10 +4181,10 @@
       </c>
       <c r="R61" s="10">
         <f>AVERAGE(R58:R60)</f>
-        <v>0.5224318887672836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.52243188876728364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4">
         <v>46</v>
@@ -4215,7 +4224,7 @@
         <v>1.238</v>
       </c>
       <c r="O62" s="5">
-        <v>2261.003</v>
+        <v>2261.0030000000002</v>
       </c>
       <c r="P62" s="5">
         <v>1187</v>
@@ -4225,10 +4234,10 @@
       </c>
       <c r="R62" s="5">
         <f>(P62-Q62)/(O62-N62)</f>
-        <v>0.5212931433135746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.52129314331357457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>47</v>
@@ -4268,7 +4277,7 @@
         <v>1.141</v>
       </c>
       <c r="O63" s="5">
-        <v>2235.738</v>
+        <v>2235.7379999999998</v>
       </c>
       <c r="P63" s="5">
         <v>1183</v>
@@ -4278,10 +4287,10 @@
       </c>
       <c r="R63" s="5">
         <f>(P63-Q63)/(O63-N63)</f>
-        <v>0.527611913915574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.52761191391557405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="4">
         <v>48</v>
@@ -4331,10 +4340,10 @@
       </c>
       <c r="R64" s="5">
         <f>(P64-Q64)/(O64-N64)</f>
-        <v>0.5131243143888797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.51312431438887973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>16</v>
       </c>
@@ -4388,10 +4397,10 @@
       </c>
       <c r="R65" s="10">
         <f>AVERAGE(R54:R56)</f>
-        <v>0.5775140418328575</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.57751404183285748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>49</v>
@@ -4429,7 +4438,7 @@
         <v>1.05</v>
       </c>
       <c r="O66" s="5">
-        <v>159.413</v>
+        <v>159.41300000000001</v>
       </c>
       <c r="P66" s="5">
         <v>2</v>
@@ -4439,10 +4448,10 @@
       </c>
       <c r="R66" s="5">
         <f>(P66-Q66)/(O66-N66)</f>
-        <v>0.012629212631738475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.2629212631738475E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>50</v>
@@ -4477,10 +4486,10 @@
         <v>2</v>
       </c>
       <c r="N67" s="5">
-        <v>1.168</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="O67" s="5">
-        <v>466.588</v>
+        <v>466.58800000000002</v>
       </c>
       <c r="P67" s="5">
         <v>12</v>
@@ -4490,10 +4499,10 @@
       </c>
       <c r="R67" s="5">
         <f>(P67-Q67)/(O67-N67)</f>
-        <v>0.025783163594173004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.5783163594173004E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4">
         <v>51</v>
@@ -4541,10 +4550,10 @@
       </c>
       <c r="R68" s="5">
         <f>(P68-Q68)/(O68-N68)</f>
-        <v>0.003159827220647575</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.1598272206475749E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>17</v>
       </c>
@@ -4584,11 +4593,11 @@
       </c>
       <c r="O69" s="10">
         <f>AVERAGE(O66:O68)</f>
-        <v>947.4810000000001</v>
+        <v>947.48100000000011</v>
       </c>
       <c r="P69" s="10">
         <f>AVERAGE(P66:P68)</f>
-        <v>8.333333333333334</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Q69" s="10">
         <f>AVERAGE(Q66:Q68)</f>
@@ -4596,10 +4605,10 @@
       </c>
       <c r="R69" s="10">
         <f>AVERAGE(R66:R68)</f>
-        <v>0.013857401148853019</v>
-      </c>
-    </row>
-    <row r="70" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.3857401148853019E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="4">
         <v>52</v>
@@ -4634,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="N70" s="5">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="O70" s="5">
         <v>735.673</v>
@@ -4645,12 +4654,12 @@
       <c r="Q70" s="5">
         <v>0</v>
       </c>
-      <c r="R70" s="5" t="e">
+      <c r="R70" s="5">
         <f>(P70-Q70)/(O70-N70)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.497091559397788E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="4">
         <v>53</v>
@@ -4685,10 +4694,10 @@
         <v>2</v>
       </c>
       <c r="N71" s="5">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="O71" s="5">
-        <v>1714.997</v>
+        <v>1714.9970000000001</v>
       </c>
       <c r="P71" s="5">
         <v>12</v>
@@ -4696,12 +4705,12 @@
       <c r="Q71" s="5">
         <v>4</v>
       </c>
-      <c r="R71" s="5" t="e">
+      <c r="R71" s="5">
         <f>(P71-Q71)/(O71-N71)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.6672675773672522E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4">
         <v>54</v>
@@ -4736,10 +4745,10 @@
         <v>2</v>
       </c>
       <c r="N72" s="5">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="O72" s="5">
-        <v>1551.964</v>
+        <v>1551.9639999999999</v>
       </c>
       <c r="P72" s="5">
         <v>6</v>
@@ -4747,12 +4756,12 @@
       <c r="Q72" s="5">
         <v>0</v>
       </c>
-      <c r="R72" s="5" t="e">
+      <c r="R72" s="5">
         <f>(P72-Q72)/(O72-N72)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.8683597187702486E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>18</v>
       </c>
@@ -4786,28 +4795,28 @@
       <c r="M73" s="12">
         <v>2</v>
       </c>
-      <c r="N73" s="10" t="e">
+      <c r="N73" s="10">
         <f>AVERAGE(N70:N72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O73" s="10" t="e">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O73" s="10">
         <f>AVERAGE(O70:O72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P73" s="10" t="e">
+        <v>1334.2113333333334</v>
+      </c>
+      <c r="P73" s="10">
         <f>AVERAGE(P70:P72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q73" s="10" t="e">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="Q73" s="10">
         <f>AVERAGE(Q70:Q72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R73" s="10" t="e">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R73" s="10">
         <f>AVERAGE(R70:R72)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.8355142967051275E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4">
         <v>55</v>
@@ -4842,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="N74" s="5">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="O74" s="5">
         <v>1713.63</v>
@@ -4853,12 +4862,12 @@
       <c r="Q74" s="5">
         <v>2</v>
       </c>
-      <c r="R74" s="5" t="e">
+      <c r="R74" s="5">
         <f>(P74-Q74)/(O74-N74)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.5031934527649826E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="4">
         <v>56</v>
@@ -4896,7 +4905,7 @@
         <v>0.91</v>
       </c>
       <c r="O75" s="5">
-        <v>531.554</v>
+        <v>531.55399999999997</v>
       </c>
       <c r="P75" s="5">
         <v>10</v>
@@ -4904,12 +4913,12 @@
       <c r="Q75" s="5">
         <v>0</v>
       </c>
-      <c r="R75" s="5" t="e">
+      <c r="R75" s="5">
         <f>(P75-Q75)/(O75-N75)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.8845026043825992E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4">
         <v>57</v>
@@ -4944,10 +4953,10 @@
         <v>2</v>
       </c>
       <c r="N76" s="5">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="O76" s="5">
-        <v>1716.726</v>
+        <v>1716.7260000000001</v>
       </c>
       <c r="P76" s="5">
         <v>11</v>
@@ -4955,12 +4964,12 @@
       <c r="Q76" s="5">
         <v>4</v>
       </c>
-      <c r="R76" s="5" t="e">
+      <c r="R76" s="5">
         <f>(P76-Q76)/(O76-N76)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" ht="19.5" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.079727194470687E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>19</v>
       </c>
@@ -4994,9 +5003,9 @@
       <c r="M77" s="12">
         <v>2</v>
       </c>
-      <c r="N77" s="10" t="e">
+      <c r="N77" s="10">
         <f>AVERAGE(N74:N76)</f>
-        <v>#DIV/0!</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="O77" s="10" t="e">
         <f>AVERAGE(O74:O76)</f>
@@ -5010,12 +5019,12 @@
         <f>AVERAGE(Q74:Q76)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R77" s="10" t="e">
+      <c r="R77" s="10">
         <f>AVERAGE(R74:R76)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8.8093155636872218E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="4">
         <v>58</v>
@@ -5052,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="N78" s="5">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="O78" s="5">
         <v>1801.37</v>
@@ -5063,12 +5072,12 @@
       <c r="Q78" s="5">
         <v>8</v>
       </c>
-      <c r="R78" s="5" t="e">
+      <c r="R78" s="5">
         <f>(P78-Q78)/(O78-N78)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.4421049006746111E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4">
         <v>59</v>
@@ -5105,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="N79" s="5">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="O79" s="5">
         <v>10.86</v>
@@ -5116,12 +5125,12 @@
       <c r="Q79" s="5">
         <v>0</v>
       </c>
-      <c r="R79" s="5" t="e">
+      <c r="R79" s="5">
         <f>(P79-Q79)/(O79-N79)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.20112630732099759</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4">
         <v>60</v>
@@ -5158,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="N80" s="5">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="O80" s="5">
         <v>228.404</v>
@@ -5169,12 +5178,12 @@
       <c r="Q80" s="5">
         <v>0</v>
       </c>
-      <c r="R80" s="5" t="e">
+      <c r="R80" s="5">
         <f>(P80-Q80)/(O80-N80)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.758566416657141E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>20</v>
       </c>
@@ -5210,28 +5219,28 @@
       <c r="M81" s="12">
         <v>2</v>
       </c>
-      <c r="N81" s="10" t="e">
+      <c r="N81" s="10">
         <f>AVERAGE(N78:N80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O81" s="10" t="e">
+        <v>0.92866666666666664</v>
+      </c>
+      <c r="O81" s="10">
         <f>AVERAGE(O78:O80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P81" s="10" t="e">
+        <v>680.2113333333333</v>
+      </c>
+      <c r="P81" s="10">
         <f>AVERAGE(P78:P80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q81" s="10" t="e">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="Q81" s="10">
         <f>AVERAGE(Q78:Q80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R81" s="10" t="e">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="R81" s="10">
         <f>AVERAGE(R78:R80)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.6051358796081214E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="4">
         <v>61</v>
@@ -5269,7 +5278,7 @@
         <v>1.212</v>
       </c>
       <c r="O82" s="5">
-        <v>623.448</v>
+        <v>623.44799999999998</v>
       </c>
       <c r="P82" s="5">
         <v>20</v>
@@ -5277,12 +5286,12 @@
       <c r="Q82" s="5">
         <v>0</v>
       </c>
-      <c r="R82" s="5" t="e">
+      <c r="R82" s="5">
         <f>(P82-Q82)/(O82-N82)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.2142145423922755E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="4">
         <v>62</v>
@@ -5317,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="N83" s="5">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="O83" s="5">
         <v>254.35</v>
@@ -5328,12 +5337,12 @@
       <c r="Q83" s="5">
         <v>0</v>
       </c>
-      <c r="R83" s="5" t="e">
+      <c r="R83" s="5">
         <f>(P83-Q83)/(O83-N83)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.5784260724418644E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="4">
         <v>63</v>
@@ -5368,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="N84" s="5">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="O84" s="5">
         <v>1700.65</v>
@@ -5379,12 +5388,12 @@
       <c r="Q84" s="5">
         <v>3</v>
       </c>
-      <c r="R84" s="5" t="e">
+      <c r="R84" s="5">
         <f>(P84-Q84)/(O84-N84)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0001582603364886E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>21</v>
       </c>
@@ -5418,28 +5427,28 @@
       <c r="M85" s="12">
         <v>2</v>
       </c>
-      <c r="N85" s="10" t="e">
+      <c r="N85" s="10">
         <f>AVERAGE(N82:N84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O85" s="10" t="e">
+        <v>1.0213333333333334</v>
+      </c>
+      <c r="O85" s="10">
         <f>AVERAGE(O82:O84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P85" s="10" t="e">
+        <v>859.48266666666677</v>
+      </c>
+      <c r="P85" s="10">
         <f>AVERAGE(P82:P84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q85" s="10" t="e">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="Q85" s="10">
         <f>AVERAGE(Q82:Q84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R85" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="R85" s="10">
         <f>AVERAGE(R82:R84)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.9309329583902097E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4">
         <v>64</v>
@@ -5479,7 +5488,7 @@
         <v>1.01</v>
       </c>
       <c r="O86" s="5">
-        <v>2430.097</v>
+        <v>2430.0970000000002</v>
       </c>
       <c r="P86" s="5">
         <v>8</v>
@@ -5487,12 +5496,12 @@
       <c r="Q86" s="5">
         <v>2</v>
       </c>
-      <c r="R86" s="5" t="e">
+      <c r="R86" s="5">
         <f>(P86-Q86)/(O86-N86)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.4700638552674317E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="B87" s="4">
         <v>65</v>
@@ -5532,7 +5541,7 @@
         <v>1.101</v>
       </c>
       <c r="O87" s="5">
-        <v>69.572</v>
+        <v>69.572000000000003</v>
       </c>
       <c r="P87" s="5">
         <v>3</v>
@@ -5540,12 +5549,12 @@
       <c r="Q87" s="5">
         <v>0</v>
       </c>
-      <c r="R87" s="5" t="e">
+      <c r="R87" s="5">
         <f>(P87-Q87)/(O87-N87)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.381416950241708E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
       <c r="B88" s="4">
         <v>66</v>
@@ -5582,10 +5591,10 @@
         <v>2</v>
       </c>
       <c r="N88" s="5">
-        <v>1.114</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="O88" s="5">
-        <v>2179.079</v>
+        <v>2179.0790000000002</v>
       </c>
       <c r="P88" s="5">
         <v>8</v>
@@ -5593,12 +5602,12 @@
       <c r="Q88" s="5">
         <v>2</v>
       </c>
-      <c r="R88" s="5" t="e">
+      <c r="R88" s="5">
         <f>(P88-Q88)/(O88-N88)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" ht="18.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.754865206741155E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>22</v>
       </c>
@@ -5634,30 +5643,30 @@
       <c r="M89" s="12">
         <v>2</v>
       </c>
-      <c r="N89" s="10" t="e">
+      <c r="N89" s="10">
         <f>AVERAGE(N86:N88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O89" s="10" t="e">
+        <v>1.075</v>
+      </c>
+      <c r="O89" s="10">
         <f>AVERAGE(O86:O88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P89" s="10" t="e">
+        <v>1559.5826666666669</v>
+      </c>
+      <c r="P89" s="10">
         <f>AVERAGE(P86:P88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q89" s="10" t="e">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="Q89" s="10">
         <f>AVERAGE(Q86:Q88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R89" s="10" t="e">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R89" s="10">
         <f>AVERAGE(R86:R88)</f>
-        <v>#DIV/0!</v>
+        <v>1.6346366188141889E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -5665,16 +5674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50:M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="10.7109375" customWidth="1"/>
+    <col min="1" max="22" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5742,7 +5751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -5802,10 +5811,10 @@
       </c>
       <c r="V2" s="5">
         <f>(T2-U2)/(S2-R2)</f>
-        <v>0.5765849485984023</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57658494859840226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -5865,10 +5874,10 @@
       </c>
       <c r="V3" s="5">
         <f>(T3-U3)/(S3-R3)</f>
-        <v>0.569151673570879</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.56915167357087904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
@@ -5915,7 +5924,7 @@
         <v>18</v>
       </c>
       <c r="R4" s="5">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="S4" s="5">
         <v>1913.501</v>
@@ -5928,10 +5937,10 @@
       </c>
       <c r="V4" s="5">
         <f>(T4-U4)/(S4-R4)</f>
-        <v>0.5846145962263599</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.58461459622635992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -5978,7 +5987,7 @@
         <v>18</v>
       </c>
       <c r="R5" s="9">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="S5" s="10">
         <v>1924.096333</v>
@@ -5991,10 +6000,10 @@
       </c>
       <c r="V5" s="10">
         <f>AVERAGE(V2:V4)</f>
-        <v>0.5767837394652138</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57678373946521377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -6041,10 +6050,10 @@
         <v>18</v>
       </c>
       <c r="R6" s="6">
-        <v>2.252</v>
+        <v>2.2519999999999998</v>
       </c>
       <c r="S6" s="6">
-        <v>3772.724</v>
+        <v>3772.7240000000002</v>
       </c>
       <c r="T6" s="6">
         <v>1109</v>
@@ -6057,7 +6066,7 @@
         <v>0.29280169315761695</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -6107,7 +6116,7 @@
         <v>2.218</v>
       </c>
       <c r="S7" s="5">
-        <v>3599.487</v>
+        <v>3599.4870000000001</v>
       </c>
       <c r="T7" s="5">
         <v>1135</v>
@@ -6120,7 +6129,7 @@
         <v>0.31273724594963564</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -6167,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="R8" s="5">
-        <v>2.163</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="S8" s="5">
         <v>3618.027</v>
@@ -6180,10 +6189,10 @@
       </c>
       <c r="V8" s="5">
         <f>(T8-U8)/(S8-R8)</f>
-        <v>0.2917698232013151</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.29176982320131511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -6233,20 +6242,20 @@
         <v>2.21</v>
       </c>
       <c r="S9" s="10">
-        <v>3663.412667</v>
+        <v>3663.4126670000001</v>
       </c>
       <c r="T9" s="10">
         <v>1101</v>
       </c>
       <c r="U9" s="10">
-        <v>6.333333333</v>
+        <v>6.3333333329999997</v>
       </c>
       <c r="V9" s="10">
         <f>AVERAGE(V6:V8)</f>
         <v>0.29910292076952255</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -6296,7 +6305,7 @@
         <v>3.036</v>
       </c>
       <c r="S10" s="6">
-        <v>5396.231</v>
+        <v>5396.2309999999998</v>
       </c>
       <c r="T10" s="6">
         <v>1117</v>
@@ -6309,7 +6318,7 @@
         <v>0.20600053029839485</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -6356,10 +6365,10 @@
         <v>18</v>
       </c>
       <c r="R11" s="5">
-        <v>3.092</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="S11" s="5">
-        <v>5455.181</v>
+        <v>5455.1809999999996</v>
       </c>
       <c r="T11" s="5">
         <v>1117</v>
@@ -6372,7 +6381,7 @@
         <v>0.20414193532057162</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -6419,10 +6428,10 @@
         <v>18</v>
       </c>
       <c r="R12" s="5">
-        <v>3.076</v>
+        <v>3.0760000000000001</v>
       </c>
       <c r="S12" s="5">
-        <v>5347.129</v>
+        <v>5347.1289999999999</v>
       </c>
       <c r="T12" s="5">
         <v>1122</v>
@@ -6435,7 +6444,7 @@
         <v>0.2095787597914916</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>3.07</v>
       </c>
       <c r="S13" s="10">
-        <v>5399.513667</v>
+        <v>5399.5136670000002</v>
       </c>
       <c r="T13" s="10">
         <v>1118.666667</v>
@@ -6495,10 +6504,10 @@
       </c>
       <c r="V13" s="10">
         <f>AVERAGE(V10:V12)</f>
-        <v>0.206573741803486</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.20657374180348601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
@@ -6558,10 +6567,10 @@
       </c>
       <c r="V14" s="5">
         <f>(T14-U14)/(S14-R14)</f>
-        <v>0.6053559536676165</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.60535595366761652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
@@ -6608,7 +6617,7 @@
         <v>18</v>
       </c>
       <c r="R15" s="5">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="S15" s="5">
         <v>1847.354</v>
@@ -6621,10 +6630,10 @@
       </c>
       <c r="V15" s="5">
         <f>(T15-U15)/(S15-R15)</f>
-        <v>0.6104278628091814</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.61042786280918138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
@@ -6671,10 +6680,10 @@
         <v>18</v>
       </c>
       <c r="R16" s="5">
-        <v>1.132</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="S16" s="5">
-        <v>1827.493</v>
+        <v>1827.4929999999999</v>
       </c>
       <c r="T16" s="5">
         <v>1106</v>
@@ -6684,10 +6693,10 @@
       </c>
       <c r="V16" s="5">
         <f>(T16-U16)/(S16-R16)</f>
-        <v>0.599005344507466</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59900534450746601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -6734,23 +6743,23 @@
         <v>18</v>
       </c>
       <c r="R17" s="9">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="S17" s="10">
-        <v>1835.984333</v>
+        <v>1835.9843330000001</v>
       </c>
       <c r="T17" s="10">
         <v>1119.333333</v>
       </c>
       <c r="U17" s="10">
-        <v>9.333333333</v>
+        <v>9.3333333330000006</v>
       </c>
       <c r="V17" s="10">
         <f>AVERAGE(V14:V16)</f>
-        <v>0.604929720328088</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.60492972032808801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -6800,7 +6809,7 @@
         <v>1.089</v>
       </c>
       <c r="S18" s="6">
-        <v>1849.736</v>
+        <v>1849.7360000000001</v>
       </c>
       <c r="T18" s="6">
         <v>1129</v>
@@ -6810,10 +6819,10 @@
       </c>
       <c r="V18" s="5">
         <f>(T18-U18)/(S18-R18)</f>
-        <v>0.6096340572850458</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.60963405728504583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
@@ -6863,7 +6872,7 @@
         <v>1.129</v>
       </c>
       <c r="S19" s="5">
-        <v>1893.206</v>
+        <v>1893.2059999999999</v>
       </c>
       <c r="T19" s="5">
         <v>1088</v>
@@ -6873,10 +6882,10 @@
       </c>
       <c r="V19" s="5">
         <f>(T19-U19)/(S19-R19)</f>
-        <v>0.5708012940276743</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57080129402767432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
@@ -6923,7 +6932,7 @@
         <v>18</v>
       </c>
       <c r="R20" s="5">
-        <v>1.144</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="S20" s="5">
         <v>1933.848</v>
@@ -6936,10 +6945,10 @@
       </c>
       <c r="V20" s="5">
         <f>(T20-U20)/(S20-R20)</f>
-        <v>0.5758771131016441</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57587711310164413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -6986,10 +6995,10 @@
         <v>18</v>
       </c>
       <c r="R21" s="9">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="S21" s="10">
-        <v>1892.263333</v>
+        <v>1892.2633330000001</v>
       </c>
       <c r="T21" s="10">
         <v>1112.666667</v>
@@ -6999,10 +7008,10 @@
       </c>
       <c r="V21" s="10">
         <f>AVERAGE(V18:V20)</f>
-        <v>0.5854374881381214</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.58543748813812135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -7049,7 +7058,7 @@
         <v>18</v>
       </c>
       <c r="R22" s="6">
-        <v>1.064</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="S22" s="6">
         <v>1871.385</v>
@@ -7062,10 +7071,10 @@
       </c>
       <c r="V22" s="5">
         <f>(T22-U22)/(S22-R22)</f>
-        <v>0.5988248063176017</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59882480631760171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -7112,7 +7121,7 @@
         <v>18</v>
       </c>
       <c r="R23" s="5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="S23" s="5">
         <v>1906.78</v>
@@ -7125,10 +7134,10 @@
       </c>
       <c r="V23" s="5">
         <f>(T23-U23)/(S23-R23)</f>
-        <v>0.5604416364056171</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.56044163640561706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -7178,7 +7187,7 @@
         <v>1.107</v>
       </c>
       <c r="S24" s="5">
-        <v>1903.043</v>
+        <v>1903.0429999999999</v>
       </c>
       <c r="T24" s="5">
         <v>1089</v>
@@ -7188,10 +7197,10 @@
       </c>
       <c r="V24" s="5">
         <f>(T24-U24)/(S24-R24)</f>
-        <v>0.5673166710131151</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.56731667101311511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>6</v>
       </c>
@@ -7238,23 +7247,23 @@
         <v>18</v>
       </c>
       <c r="R25" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S25" s="10">
-        <v>1893.736</v>
+        <v>1893.7360000000001</v>
       </c>
       <c r="T25" s="10">
         <v>1094.333333</v>
       </c>
       <c r="U25" s="10">
-        <v>5.333333333</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="V25" s="10">
         <f>AVERAGE(V22:V24)</f>
         <v>0.575527704578778</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
         <v>19</v>
@@ -7314,10 +7323,10 @@
       </c>
       <c r="V26" s="5">
         <f>(T26-U26)/(S26-R26)</f>
-        <v>0.5977516623015521</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59775166230155208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
         <v>20</v>
@@ -7364,10 +7373,10 @@
         <v>18</v>
       </c>
       <c r="R27" s="5">
-        <v>1.261</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="S27" s="5">
-        <v>1880.869</v>
+        <v>1880.8689999999999</v>
       </c>
       <c r="T27" s="5">
         <v>1109</v>
@@ -7377,10 +7386,10 @@
       </c>
       <c r="V27" s="5">
         <f>(T27-U27)/(S27-R27)</f>
-        <v>0.587888538461211</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.58788853846121103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>21</v>
@@ -7430,7 +7439,7 @@
         <v>1.087</v>
       </c>
       <c r="S28" s="5">
-        <v>1892.507</v>
+        <v>1892.5070000000001</v>
       </c>
       <c r="T28" s="5">
         <v>1132</v>
@@ -7440,10 +7449,10 @@
       </c>
       <c r="V28" s="5">
         <f>(T28-U28)/(S28-R28)</f>
-        <v>0.5947912150659292</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59479121506592925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>7</v>
       </c>
@@ -7490,10 +7499,10 @@
         <v>18</v>
       </c>
       <c r="R29" s="9">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S29" s="10">
-        <v>1898.342667</v>
+        <v>1898.3426669999999</v>
       </c>
       <c r="T29" s="10">
         <v>1131</v>
@@ -7503,10 +7512,10 @@
       </c>
       <c r="V29" s="10">
         <f>AVERAGE(V26:V28)</f>
-        <v>0.5934771386095642</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59347713860956419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
         <v>22</v>
@@ -7556,7 +7565,7 @@
         <v>1.014</v>
       </c>
       <c r="S30" s="6">
-        <v>1903.517</v>
+        <v>1903.5170000000001</v>
       </c>
       <c r="T30" s="6">
         <v>1137</v>
@@ -7566,10 +7575,10 @@
       </c>
       <c r="V30" s="5">
         <f>(T30-U30)/(S30-R30)</f>
-        <v>0.5944778214043553</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59447782140435534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
         <v>23</v>
@@ -7632,7 +7641,7 @@
         <v>0.5707581570853284</v>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
         <v>24</v>
@@ -7682,7 +7691,7 @@
         <v>1.052</v>
       </c>
       <c r="S32" s="5">
-        <v>1961.151</v>
+        <v>1961.1510000000001</v>
       </c>
       <c r="T32" s="5">
         <v>1129</v>
@@ -7692,10 +7701,10 @@
       </c>
       <c r="V32" s="5">
         <f>(T32-U32)/(S32-R32)</f>
-        <v>0.5708895316001895</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57088953160018951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>8</v>
       </c>
@@ -7755,10 +7764,10 @@
       </c>
       <c r="V33" s="10">
         <f>AVERAGE(V30:V32)</f>
-        <v>0.5787085033632912</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57870850336329116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="5">
         <v>25</v>
@@ -7805,7 +7814,7 @@
         <v>18</v>
       </c>
       <c r="R34" s="6">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="S34" s="6">
         <v>1911.537</v>
@@ -7818,10 +7827,10 @@
       </c>
       <c r="V34" s="5">
         <f>(T34-U34)/(S34-R34)</f>
-        <v>0.5977805695142379</v>
-      </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59778056951423786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="5">
         <v>26</v>
@@ -7868,7 +7877,7 @@
         <v>18</v>
       </c>
       <c r="R35" s="5">
-        <v>1.152</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="S35" s="5">
         <v>1821.845</v>
@@ -7881,10 +7890,10 @@
       </c>
       <c r="V35" s="5">
         <f>(T35-U35)/(S35-R35)</f>
-        <v>0.6233890062739847</v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.62338900627398475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="5">
         <v>27</v>
@@ -7931,10 +7940,10 @@
         <v>18</v>
       </c>
       <c r="R36" s="5">
-        <v>1.074</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="S36" s="5">
-        <v>1907.919</v>
+        <v>1907.9190000000001</v>
       </c>
       <c r="T36" s="5">
         <v>1158</v>
@@ -7944,10 +7953,10 @@
       </c>
       <c r="V36" s="5">
         <f>(T36-U36)/(S36-R36)</f>
-        <v>0.6020415922636606</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.60204159226366061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>9</v>
       </c>
@@ -7994,7 +8003,7 @@
         <v>18</v>
       </c>
       <c r="R37" s="9">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="S37" s="10">
         <v>1880.433667</v>
@@ -8007,10 +8016,10 @@
       </c>
       <c r="V37" s="10">
         <f>AVERAGE(V34:V36)</f>
-        <v>0.6077370560172944</v>
-      </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.60773705601729444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="5">
         <v>28</v>
@@ -8070,10 +8079,10 @@
       </c>
       <c r="V38" s="5">
         <f>(T38-U38)/(S38-R38)</f>
-        <v>0.617937378763373</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.61793737876337296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="5">
         <v>29</v>
@@ -8133,10 +8142,10 @@
       </c>
       <c r="V39" s="5">
         <f>(T39-U39)/(S39-R39)</f>
-        <v>0.597111323254262</v>
-      </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59711132325426197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="5">
         <v>30</v>
@@ -8196,10 +8205,10 @@
       </c>
       <c r="V40" s="5">
         <f>(T40-U40)/(S40-R40)</f>
-        <v>0.5826293444927</v>
-      </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.58262934449269999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>10</v>
       </c>
@@ -8255,14 +8264,14 @@
         <v>1143</v>
       </c>
       <c r="U41" s="10">
-        <v>5.666666667</v>
+        <v>5.6666666670000003</v>
       </c>
       <c r="V41" s="10">
         <f>AVERAGE(V38:V40)</f>
-        <v>0.599226015503445</v>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59922601550344501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="5">
         <v>31</v>
@@ -8322,10 +8331,10 @@
       </c>
       <c r="V42" s="5">
         <f>(T42-U42)/(S42-R42)</f>
-        <v>0.579489214191743</v>
-      </c>
-    </row>
-    <row r="43" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57948921419174304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="5">
         <v>32</v>
@@ -8372,7 +8381,7 @@
         <v>30</v>
       </c>
       <c r="R43" s="5">
-        <v>1.172</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="S43" s="5">
         <v>1911.038</v>
@@ -8385,10 +8394,10 @@
       </c>
       <c r="V43" s="5">
         <f>(T43-U43)/(S43-R43)</f>
-        <v>0.5764802347389817</v>
-      </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57648023473898169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="5">
         <v>33</v>
@@ -8448,10 +8457,10 @@
       </c>
       <c r="V44" s="5">
         <f>(T44-U44)/(S44-R44)</f>
-        <v>0.5729084916025742</v>
-      </c>
-    </row>
-    <row r="45" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57290849160257418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
         <v>11</v>
       </c>
@@ -8501,7 +8510,7 @@
         <v>1.08</v>
       </c>
       <c r="S45" s="10">
-        <v>1913.294</v>
+        <v>1913.2940000000001</v>
       </c>
       <c r="T45" s="10">
         <v>1109</v>
@@ -8511,10 +8520,10 @@
       </c>
       <c r="V45" s="10">
         <f>AVERAGE(V42:V44)</f>
-        <v>0.576292646844433</v>
-      </c>
-    </row>
-    <row r="46" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.57629264684443304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="5">
         <v>34</v>
@@ -8561,10 +8570,10 @@
         <v>31</v>
       </c>
       <c r="R46" s="6">
-        <v>1.291</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="S46" s="6">
-        <v>1928.166</v>
+        <v>1928.1659999999999</v>
       </c>
       <c r="T46" s="6">
         <v>1167</v>
@@ -8574,10 +8583,10 @@
       </c>
       <c r="V46" s="5">
         <f>(T46-U46)/(S46-R46)</f>
-        <v>0.5973387029809848</v>
-      </c>
-    </row>
-    <row r="47" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59733870298098479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="5">
         <v>35</v>
@@ -8624,7 +8633,7 @@
         <v>31</v>
       </c>
       <c r="R47" s="5">
-        <v>1.138</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="S47" s="5">
         <v>1916.779</v>
@@ -8637,10 +8646,10 @@
       </c>
       <c r="V47" s="5">
         <f>(T47-U47)/(S47-R47)</f>
-        <v>0.5820506034272601</v>
-      </c>
-    </row>
-    <row r="48" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.58205060342726012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="5">
         <v>36</v>
@@ -8690,7 +8699,7 @@
         <v>1.054</v>
       </c>
       <c r="S48" s="5">
-        <v>1873.303</v>
+        <v>1873.3030000000001</v>
       </c>
       <c r="T48" s="5">
         <v>1150</v>
@@ -8700,10 +8709,10 @@
       </c>
       <c r="V48" s="5">
         <f>(T48-U48)/(S48-R48)</f>
-        <v>0.6094274853398239</v>
-      </c>
-    </row>
-    <row r="49" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.60942748533982394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
         <v>12</v>
       </c>
@@ -8750,10 +8759,10 @@
         <v>31</v>
       </c>
       <c r="R49" s="9">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S49" s="10">
-        <v>1906.082667</v>
+        <v>1906.0826669999999</v>
       </c>
       <c r="T49" s="10">
         <v>1146.666667</v>
@@ -8763,10 +8772,10 @@
       </c>
       <c r="V49" s="10">
         <f>AVERAGE(V46:V48)</f>
-        <v>0.5962722639160231</v>
-      </c>
-    </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.59627226391602306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="5">
         <v>37</v>
@@ -8816,7 +8825,7 @@
         <v>1.073</v>
       </c>
       <c r="S50" s="6">
-        <v>1910.872</v>
+        <v>1910.8720000000001</v>
       </c>
       <c r="T50" s="6">
         <v>1140</v>
@@ -8829,7 +8838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="5">
         <v>38</v>
@@ -8876,10 +8885,10 @@
         <v>23</v>
       </c>
       <c r="R51" s="5">
-        <v>1.642</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="S51" s="5">
-        <v>88.615</v>
+        <v>88.614999999999995</v>
       </c>
       <c r="T51" s="5">
         <v>5</v>
@@ -8892,7 +8901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="5">
         <v>39</v>
@@ -8939,10 +8948,10 @@
         <v>23</v>
       </c>
       <c r="R52" s="5">
-        <v>1.775</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="S52" s="5">
-        <v>1942.747</v>
+        <v>1942.7470000000001</v>
       </c>
       <c r="T52" s="5">
         <v>4</v>
@@ -8955,7 +8964,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
         <v>13</v>
       </c>
@@ -9002,10 +9011,10 @@
         <v>23</v>
       </c>
       <c r="R53" s="9">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S53" s="10">
-        <v>1906.082667</v>
+        <v>1906.0826669999999</v>
       </c>
       <c r="T53" s="10">
         <v>1146.666667</v>
@@ -9018,7 +9027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="5">
         <v>40</v>
@@ -9065,10 +9074,10 @@
         <v>23</v>
       </c>
       <c r="R54" s="6">
-        <v>1.555</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="S54" s="6">
-        <v>164.558</v>
+        <v>164.55799999999999</v>
       </c>
       <c r="T54" s="6">
         <v>4</v>
@@ -9081,7 +9090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="5">
         <v>41</v>
@@ -9131,7 +9140,7 @@
         <v>1.621</v>
       </c>
       <c r="S55" s="5">
-        <v>1891.772</v>
+        <v>1891.7719999999999</v>
       </c>
       <c r="T55" s="5">
         <v>12</v>
@@ -9144,7 +9153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="5">
         <v>42</v>
@@ -9191,10 +9200,10 @@
         <v>23</v>
       </c>
       <c r="R56" s="5">
-        <v>1.745</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="S56" s="5">
-        <v>3403.365</v>
+        <v>3403.3649999999998</v>
       </c>
       <c r="T56" s="5">
         <v>16</v>
@@ -9207,7 +9216,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
         <v>14</v>
       </c>
@@ -9254,10 +9263,10 @@
         <v>23</v>
       </c>
       <c r="R57" s="9">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S57" s="10">
-        <v>1906.082667</v>
+        <v>1906.0826669999999</v>
       </c>
       <c r="T57" s="10">
         <v>1146.666667</v>
@@ -9270,7 +9279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
       <c r="B58" s="5">
         <v>43</v>
@@ -9317,10 +9326,10 @@
         <v>23</v>
       </c>
       <c r="R58" s="6">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="S58" s="6">
-        <v>638.671</v>
+        <v>638.67100000000005</v>
       </c>
       <c r="T58" s="6">
         <v>4</v>
@@ -9333,7 +9342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="5">
         <v>44</v>
@@ -9383,7 +9392,7 @@
         <v>1.542</v>
       </c>
       <c r="S59" s="5">
-        <v>334.864</v>
+        <v>334.86399999999998</v>
       </c>
       <c r="T59" s="5">
         <v>8</v>
@@ -9396,7 +9405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="5">
         <v>45</v>
@@ -9443,7 +9452,7 @@
         <v>23</v>
       </c>
       <c r="R60" s="5">
-        <v>1.685</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="S60" s="5">
         <v>3484.107</v>
@@ -9459,7 +9468,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
         <v>15</v>
       </c>
@@ -9506,10 +9515,10 @@
         <v>23</v>
       </c>
       <c r="R61" s="9">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S61" s="10">
-        <v>1906.082667</v>
+        <v>1906.0826669999999</v>
       </c>
       <c r="T61" s="10">
         <v>1146.666667</v>
@@ -9522,7 +9531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="5">
         <v>46</v>
@@ -9569,10 +9578,10 @@
         <v>23</v>
       </c>
       <c r="R62" s="6">
-        <v>2.038</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="S62" s="6">
-        <v>433.463</v>
+        <v>433.46300000000002</v>
       </c>
       <c r="T62" s="6">
         <v>8</v>
@@ -9585,7 +9594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="5">
         <v>47</v>
@@ -9635,7 +9644,7 @@
         <v>1.907</v>
       </c>
       <c r="S63" s="5">
-        <v>941.884</v>
+        <v>941.88400000000001</v>
       </c>
       <c r="T63" s="5">
         <v>15</v>
@@ -9648,7 +9657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="5">
         <v>48</v>
@@ -9711,7 +9720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" ht="18.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
         <v>16</v>
       </c>
@@ -9758,10 +9767,10 @@
         <v>23</v>
       </c>
       <c r="R65" s="9">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S65" s="10">
-        <v>1906.082667</v>
+        <v>1906.0826669999999</v>
       </c>
       <c r="T65" s="10">
         <v>1146.666667</v>
@@ -9774,12 +9783,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R66">
         <v>1.857</v>
       </c>
       <c r="S66">
-        <v>2016.956</v>
+        <v>2016.9559999999999</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -9790,7 +9799,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -9798,18 +9807,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9850,7 +9859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -9872,10 +9881,10 @@
         <v>0.99</v>
       </c>
       <c r="I2" s="6">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="J2" s="6">
-        <v>163.682</v>
+        <v>163.68199999999999</v>
       </c>
       <c r="K2" s="6">
         <v>1365</v>
@@ -9885,10 +9894,10 @@
       </c>
       <c r="M2" s="5">
         <f>(K2-L2)/(J2-I2)</f>
-        <v>8.338949819251273</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.3389498192512725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -9926,7 +9935,7 @@
         <v>1.6389967674290085</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
@@ -9964,7 +9973,7 @@
         <v>10.826721702501988</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -9987,7 +9996,7 @@
       </c>
       <c r="I5" s="9">
         <f>AVERAGE(I2:I4)</f>
-        <v>0.5116666666666667</v>
+        <v>0.51166666666666671</v>
       </c>
       <c r="J5" s="10">
         <f>AVERAGE(J2:J4)</f>
@@ -10003,10 +10012,10 @@
       </c>
       <c r="M5" s="10">
         <f>AVERAGE(M2:M4)</f>
-        <v>6.934889429727423</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.9348894297274226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -10033,7 +10042,7 @@
         <v>0.46</v>
       </c>
       <c r="J6" s="6">
-        <v>646.977</v>
+        <v>646.97699999999998</v>
       </c>
       <c r="K6" s="6">
         <v>1186</v>
@@ -10046,7 +10055,7 @@
         <v>1.2714282841750488</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -10073,7 +10082,7 @@
         <v>0.433</v>
       </c>
       <c r="J7" s="5">
-        <v>633.789</v>
+        <v>633.78899999999999</v>
       </c>
       <c r="K7" s="5">
         <v>1270</v>
@@ -10086,7 +10095,7 @@
         <v>1.4115284295088386</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -10110,7 +10119,7 @@
         <v>0.99</v>
       </c>
       <c r="I8" s="5">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="J8" s="5">
         <v>637.899</v>
@@ -10126,7 +10135,7 @@
         <v>1.4369664320876487</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -10151,11 +10160,11 @@
       </c>
       <c r="I9" s="9">
         <f>AVERAGE(I6:I8)</f>
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="J9" s="10">
         <f>AVERAGE(J6:J8)</f>
-        <v>639.555</v>
+        <v>639.55499999999995</v>
       </c>
       <c r="K9" s="10">
         <f>AVERAGE(K6:K8)</f>
@@ -10163,14 +10172,14 @@
       </c>
       <c r="L9" s="10">
         <f>AVERAGE(L6:L8)</f>
-        <v>372.6666666666667</v>
+        <v>372.66666666666669</v>
       </c>
       <c r="M9" s="10">
         <f>AVERAGE(M6:M8)</f>
         <v>1.3733077152571787</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -10210,7 +10219,7 @@
         <v>1.0982701509017299</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -10234,10 +10243,10 @@
         <v>0.99</v>
       </c>
       <c r="I11" s="5">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="J11" s="5">
-        <v>663.306</v>
+        <v>663.30600000000004</v>
       </c>
       <c r="K11" s="5">
         <v>1437</v>
@@ -10250,7 +10259,7 @@
         <v>1.065096077398993</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -10274,10 +10283,10 @@
         <v>0.99</v>
       </c>
       <c r="I12" s="5">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="J12" s="5">
-        <v>668.001</v>
+        <v>668.00099999999998</v>
       </c>
       <c r="K12" s="5">
         <v>1338</v>
@@ -10287,10 +10296,10 @@
       </c>
       <c r="M12" s="5">
         <f>(K12-L12)/(J12-I12)</f>
-        <v>0.9946760861293619</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99467608612936187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -10315,7 +10324,7 @@
       </c>
       <c r="I13" s="9">
         <f>AVERAGE(I10:I12)</f>
-        <v>0.4656666666666667</v>
+        <v>0.46566666666666667</v>
       </c>
       <c r="J13" s="10">
         <f>AVERAGE(J10:J12)</f>
@@ -10327,14 +10336,14 @@
       </c>
       <c r="L13" s="10">
         <f>AVERAGE(L10:L12)</f>
-        <v>699.6666666666666</v>
+        <v>699.66666666666663</v>
       </c>
       <c r="M13" s="10">
         <f>AVERAGE(M10:M12)</f>
         <v>1.052680771476695</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
@@ -10372,7 +10381,7 @@
         <v>10.269450026657918</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
@@ -10394,7 +10403,7 @@
         <v>0.99</v>
       </c>
       <c r="I15" s="5">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J15" s="5">
         <v>169.16</v>
@@ -10407,10 +10416,10 @@
       </c>
       <c r="M15" s="5">
         <f>(K15-L15)/(J15-I15)</f>
-        <v>8.411331290270953</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.4113312902709527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
@@ -10432,7 +10441,7 @@
         <v>0.99</v>
       </c>
       <c r="I16" s="5">
-        <v>0.482</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="J16" s="5">
         <v>286.68</v>
@@ -10445,10 +10454,10 @@
       </c>
       <c r="M16" s="5">
         <f>(K16-L16)/(J16-I16)</f>
-        <v>4.591227052599948</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.5912270525999483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -10487,10 +10496,10 @@
       </c>
       <c r="M17" s="10">
         <f>AVERAGE(M14:M16)</f>
-        <v>7.757336123176273</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.7573361231762732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -10512,10 +10521,10 @@
         <v>0.8</v>
       </c>
       <c r="I18" s="6">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="J18" s="6">
-        <v>107.981</v>
+        <v>107.98099999999999</v>
       </c>
       <c r="K18" s="6">
         <v>1153</v>
@@ -10528,7 +10537,7 @@
         <v>10.701601056213624</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
@@ -10563,10 +10572,10 @@
       </c>
       <c r="M19" s="5">
         <f>(K19-L19)/(J19-I19)</f>
-        <v>7.657835436108318</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.6578354361083179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
@@ -10588,7 +10597,7 @@
         <v>0.8</v>
       </c>
       <c r="I20" s="5">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="J20" s="5">
         <v>128.798</v>
@@ -10601,10 +10610,10 @@
       </c>
       <c r="M20" s="5">
         <f>(K20-L20)/(J20-I20)</f>
-        <v>8.132171149487066</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.1321711494870659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -10643,10 +10652,10 @@
       </c>
       <c r="M21" s="10">
         <f>AVERAGE(M18:M20)</f>
-        <v>8.830535880603001</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.8305358806030014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -10681,10 +10690,10 @@
       </c>
       <c r="M22" s="5">
         <f>(K22-L22)/(J22-I22)</f>
-        <v>4.77596888056476</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.7759688805647604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -10706,10 +10715,10 @@
         <v>0.99</v>
       </c>
       <c r="I23" s="5">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="J23" s="5">
-        <v>141.764</v>
+        <v>141.76400000000001</v>
       </c>
       <c r="K23" s="5">
         <v>635</v>
@@ -10719,10 +10728,10 @@
       </c>
       <c r="M23" s="5">
         <f>(K23-L23)/(J23-I23)</f>
-        <v>4.494048040311965</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.4940480403119647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -10744,10 +10753,10 @@
         <v>0.99</v>
       </c>
       <c r="I24" s="5">
-        <v>0.476</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J24" s="5">
-        <v>189.731</v>
+        <v>189.73099999999999</v>
       </c>
       <c r="K24" s="5">
         <v>618</v>
@@ -10760,7 +10769,7 @@
         <v>3.2548677709968032</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>6</v>
       </c>
@@ -10791,7 +10800,7 @@
       </c>
       <c r="K25" s="10">
         <f>AVERAGE(K22:K24)</f>
-        <v>639.3333333333334</v>
+        <v>639.33333333333337</v>
       </c>
       <c r="L25" s="10">
         <f>AVERAGE(L22:L24)</f>
@@ -10799,12 +10808,12 @@
       </c>
       <c r="M25" s="10">
         <f>AVERAGE(M22:M24)</f>
-        <v>4.174961563957843</v>
+        <v>4.1749615639578428</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -10812,16 +10821,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="10.7109375" customWidth="1"/>
+    <col min="1" max="14" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10865,7 +10874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -10890,10 +10899,10 @@
         <v>50</v>
       </c>
       <c r="J2" s="6">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K2" s="6">
-        <v>49.861</v>
+        <v>49.860999999999997</v>
       </c>
       <c r="L2" s="6">
         <v>1259</v>
@@ -10906,7 +10915,7 @@
         <v>25.267932404768594</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
@@ -10931,7 +10940,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="5">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K3" s="5">
         <v>199.316</v>
@@ -10944,10 +10953,10 @@
       </c>
       <c r="N3" s="5">
         <f>(L3-M3)/(K3-J3)</f>
-        <v>6.709186617757014</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.7091866177570143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
@@ -10972,10 +10981,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="5">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="K4" s="5">
-        <v>201.295</v>
+        <v>201.29499999999999</v>
       </c>
       <c r="L4" s="5">
         <v>1371</v>
@@ -10985,10 +10994,10 @@
       </c>
       <c r="N4" s="5">
         <f>(L4-M4)/(K4-J4)</f>
-        <v>6.713010121688837</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.7130101216888374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -11014,7 +11023,7 @@
       </c>
       <c r="J5" s="9">
         <f>AVERAGE(J2:J4)</f>
-        <v>0.03866666666666667</v>
+        <v>3.8666666666666669E-2</v>
       </c>
       <c r="K5" s="10">
         <f>AVERAGE(K2:K4)</f>
@@ -11033,7 +11042,7 @@
         <v>12.896709714738149</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -11060,10 +11069,10 @@
         <v>50</v>
       </c>
       <c r="J6" s="6">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K6" s="6">
-        <v>191.606</v>
+        <v>191.60599999999999</v>
       </c>
       <c r="L6" s="6">
         <v>1189</v>
@@ -11076,7 +11085,7 @@
         <v>5.8985347622055295</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -11103,10 +11112,10 @@
         <v>50</v>
       </c>
       <c r="J7" s="5">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K7" s="5">
-        <v>192.592</v>
+        <v>192.59200000000001</v>
       </c>
       <c r="L7" s="5">
         <v>1314</v>
@@ -11116,10 +11125,10 @@
       </c>
       <c r="N7" s="5">
         <f>(L7-M7)/(K7-J7)</f>
-        <v>6.626540436956984</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.6265404369569838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -11146,10 +11155,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="5">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K8" s="5">
-        <v>193.218</v>
+        <v>193.21799999999999</v>
       </c>
       <c r="L8" s="5">
         <v>1320</v>
@@ -11159,10 +11168,10 @@
       </c>
       <c r="N8" s="5">
         <f>(L8-M8)/(K8-J8)</f>
-        <v>6.656969370693806</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.6569693706938056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -11190,7 +11199,7 @@
       </c>
       <c r="J9" s="9">
         <f>AVERAGE(J6:J8)</f>
-        <v>0.034333333333333334</v>
+        <v>3.4333333333333334E-2</v>
       </c>
       <c r="K9" s="10">
         <f>AVERAGE(K6:K8)</f>
@@ -11206,10 +11215,10 @@
       </c>
       <c r="N9" s="10">
         <f>AVERAGE(N6:N8)</f>
-        <v>6.394014856618774</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.3940148566187736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -11234,10 +11243,10 @@
         <v>50</v>
       </c>
       <c r="J10" s="6">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K10" s="6">
-        <v>196.338</v>
+        <v>196.33799999999999</v>
       </c>
       <c r="L10" s="6">
         <v>1246</v>
@@ -11250,7 +11259,7 @@
         <v>6.3269859705963265</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -11275,10 +11284,10 @@
         <v>50</v>
       </c>
       <c r="J11" s="5">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K11" s="5">
-        <v>63.031</v>
+        <v>63.030999999999999</v>
       </c>
       <c r="L11" s="5">
         <v>1421</v>
@@ -11291,7 +11300,7 @@
         <v>22.555913585929936</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -11316,10 +11325,10 @@
         <v>50</v>
       </c>
       <c r="J12" s="5">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K12" s="5">
-        <v>82.935</v>
+        <v>82.935000000000002</v>
       </c>
       <c r="L12" s="5">
         <v>1194</v>
@@ -11332,7 +11341,7 @@
         <v>14.403068794557232</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -11358,7 +11367,7 @@
       </c>
       <c r="J13" s="9">
         <f>AVERAGE(J10:J12)</f>
-        <v>0.03466666666666667</v>
+        <v>3.4666666666666672E-2</v>
       </c>
       <c r="K13" s="10">
         <f>AVERAGE(K10:K12)</f>
@@ -11377,7 +11386,7 @@
         <v>14.428656117027833</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
@@ -11402,10 +11411,10 @@
         <v>50</v>
       </c>
       <c r="J14" s="6">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="K14" s="6">
-        <v>161.741</v>
+        <v>161.74100000000001</v>
       </c>
       <c r="L14" s="6">
         <v>1245</v>
@@ -11415,10 +11424,10 @@
       </c>
       <c r="N14" s="5">
         <f>(L14-M14)/(K14-J14)</f>
-        <v>7.699348183695934</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.6993481836959337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
@@ -11443,10 +11452,10 @@
         <v>50</v>
       </c>
       <c r="J15" s="5">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K15" s="5">
-        <v>205.538</v>
+        <v>205.53800000000001</v>
       </c>
       <c r="L15" s="5">
         <v>1243</v>
@@ -11456,10 +11465,10 @@
       </c>
       <c r="N15" s="5">
         <f>(L15-M15)/(K15-J15)</f>
-        <v>6.029021050480278</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.0290210504802779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
@@ -11484,10 +11493,10 @@
         <v>50</v>
       </c>
       <c r="J16" s="5">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K16" s="5">
-        <v>197.647</v>
+        <v>197.64699999999999</v>
       </c>
       <c r="L16" s="5">
         <v>1316</v>
@@ -11500,7 +11509,7 @@
         <v>6.649326464724159</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -11526,7 +11535,7 @@
       </c>
       <c r="J17" s="9">
         <f>AVERAGE(J14:J16)</f>
-        <v>0.03466666666666667</v>
+        <v>3.4666666666666672E-2</v>
       </c>
       <c r="K17" s="10">
         <f>AVERAGE(K14:K16)</f>
@@ -11545,7 +11554,7 @@
         <v>6.7925652329667905</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -11570,7 +11579,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="6">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K18" s="6">
         <v>247.02</v>
@@ -11583,10 +11592,10 @@
       </c>
       <c r="N18" s="5">
         <f>(L18-M18)/(K18-J18)</f>
-        <v>5.263754595662666</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.2637545956626663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
@@ -11611,10 +11620,10 @@
         <v>50</v>
       </c>
       <c r="J19" s="5">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="K19" s="5">
-        <v>268.773</v>
+        <v>268.77300000000002</v>
       </c>
       <c r="L19" s="5">
         <v>1230</v>
@@ -11624,10 +11633,10 @@
       </c>
       <c r="N19" s="5">
         <f>(L19-M19)/(K19-J19)</f>
-        <v>4.380023816612087</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.3800238166120868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
@@ -11652,10 +11661,10 @@
         <v>50</v>
       </c>
       <c r="J20" s="5">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="K20" s="5">
-        <v>256.174</v>
+        <v>256.17399999999998</v>
       </c>
       <c r="L20" s="5">
         <v>1450</v>
@@ -11665,13 +11674,13 @@
       </c>
       <c r="N20" s="5">
         <f>(L20-M20)/(K20-J20)</f>
-        <v>5.653445361090397</v>
+        <v>5.6534453610903972</v>
       </c>
       <c r="Q20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -11697,7 +11706,7 @@
       </c>
       <c r="J21" s="9">
         <f>AVERAGE(J18:J20)</f>
-        <v>0.04933333333333334</v>
+        <v>4.933333333333334E-2</v>
       </c>
       <c r="K21" s="10">
         <f>AVERAGE(K18:K20)</f>
@@ -11713,10 +11722,10 @@
       </c>
       <c r="N21" s="10">
         <f>AVERAGE(N18:N20)</f>
-        <v>5.099074591121717</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.0990745911217168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -11741,7 +11750,7 @@
         <v>50</v>
       </c>
       <c r="J22" s="6">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="K22" s="6">
         <v>309.517</v>
@@ -11754,10 +11763,10 @@
       </c>
       <c r="N22" s="5">
         <f>(L22-M22)/(K22-J22)</f>
-        <v>4.149417821167848</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.1494178211678481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -11782,10 +11791,10 @@
         <v>50</v>
       </c>
       <c r="J23" s="5">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K23" s="5">
-        <v>321.337</v>
+        <v>321.33699999999999</v>
       </c>
       <c r="L23" s="5">
         <v>1268</v>
@@ -11798,7 +11807,7 @@
         <v>3.940549373589604</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -11823,7 +11832,7 @@
         <v>50</v>
       </c>
       <c r="J24" s="5">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="K24" s="5">
         <v>321.68</v>
@@ -11839,7 +11848,7 @@
         <v>3.8026596852778303</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>6</v>
       </c>
@@ -11865,7 +11874,7 @@
       </c>
       <c r="J25" s="9">
         <f>AVERAGE(J22:J24)</f>
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="K25" s="10">
         <f>AVERAGE(K22:K24)</f>
@@ -11884,7 +11893,7 @@
         <v>3.9642089600117614</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
         <v>19</v>
@@ -11909,7 +11918,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="6">
-        <v>0.069</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="K26" s="6">
         <v>29.666</v>
@@ -11922,10 +11931,10 @@
       </c>
       <c r="N26" s="5">
         <f>(L26-M26)/(K26-J26)</f>
-        <v>46.96421934655539</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.964219346555389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
         <v>20</v>
@@ -11950,7 +11959,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="5">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K27" s="5">
         <v>457.822</v>
@@ -11963,10 +11972,10 @@
       </c>
       <c r="N27" s="5">
         <f>(L27-M27)/(K27-J27)</f>
-        <v>0.3975995473482076</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.39759954734820763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>21</v>
@@ -11991,10 +12000,10 @@
         <v>100</v>
       </c>
       <c r="J28" s="5">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K28" s="5">
-        <v>340.724</v>
+        <v>340.72399999999999</v>
       </c>
       <c r="L28" s="5">
         <v>1186</v>
@@ -12007,7 +12016,7 @@
         <v>3.4609287852991257</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>7</v>
       </c>
@@ -12033,11 +12042,11 @@
       </c>
       <c r="J29" s="9">
         <f>AVERAGE(J26:J28)</f>
-        <v>0.06933333333333334</v>
+        <v>6.9333333333333344E-2</v>
       </c>
       <c r="K29" s="10">
         <f>AVERAGE(K26:K28)</f>
-        <v>276.0706666666667</v>
+        <v>276.07066666666668</v>
       </c>
       <c r="L29" s="10">
         <f>AVERAGE(L26:L28)</f>
@@ -12045,14 +12054,14 @@
       </c>
       <c r="M29" s="10">
         <f>AVERAGE(M26:M28)</f>
-        <v>406.6666666666667</v>
+        <v>406.66666666666669</v>
       </c>
       <c r="N29" s="10">
         <f>AVERAGE(N26:N28)</f>
         <v>16.940915893067572</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
         <v>22</v>
@@ -12077,10 +12086,10 @@
         <v>100</v>
       </c>
       <c r="J30" s="6">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K30" s="6">
-        <v>417.627</v>
+        <v>417.62700000000001</v>
       </c>
       <c r="L30" s="6">
         <v>20</v>
@@ -12090,10 +12099,10 @@
       </c>
       <c r="N30" s="5">
         <f>(L30-M30)/(K30-J30)</f>
-        <v>0.023948367320057954</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3948367320057954E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
         <v>23</v>
@@ -12118,10 +12127,10 @@
         <v>100</v>
       </c>
       <c r="J31" s="5">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="K31" s="5">
-        <v>395.269</v>
+        <v>395.26900000000001</v>
       </c>
       <c r="L31" s="5">
         <v>12</v>
@@ -12131,10 +12140,10 @@
       </c>
       <c r="N31" s="5">
         <f>(L31-M31)/(K31-J31)</f>
-        <v>0.015182109402280352</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5182109402280352E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
         <v>24</v>
@@ -12159,10 +12168,10 @@
         <v>100</v>
       </c>
       <c r="J32" s="5">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K32" s="5">
-        <v>65.778</v>
+        <v>65.778000000000006</v>
       </c>
       <c r="L32" s="5">
         <v>18</v>
@@ -12175,7 +12184,7 @@
         <v>0.27396009314643166</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>8</v>
       </c>
@@ -12201,11 +12210,11 @@
       </c>
       <c r="J33" s="9">
         <f>AVERAGE(J30:J32)</f>
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K33" s="10">
         <f>AVERAGE(K30:K32)</f>
-        <v>292.8913333333333</v>
+        <v>292.89133333333331</v>
       </c>
       <c r="L33" s="10">
         <f>AVERAGE(L30:L32)</f>
@@ -12222,6 +12231,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/server/resource/Tests.xlsx
+++ b/server/resource/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="38">
   <si>
     <t># avg</t>
   </si>
@@ -557,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,6 +605,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -943,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q82" sqref="Q82"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5611,7 +5628,7 @@
       <c r="A89" s="8">
         <v>22</v>
       </c>
-      <c r="B89" s="8"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="5">
         <v>500</v>
       </c>
@@ -5664,18 +5681,178 @@
         <v>1.6346366188141889E-2</v>
       </c>
     </row>
+    <row r="90" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="24"/>
+      <c r="B90" s="23">
+        <v>67</v>
+      </c>
+      <c r="C90" s="5">
+        <v>500</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="23">
+        <v>1</v>
+      </c>
+      <c r="G90" s="23"/>
+      <c r="H90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L90" s="23">
+        <v>1</v>
+      </c>
+      <c r="M90" s="23">
+        <v>2</v>
+      </c>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="23"/>
+    </row>
+    <row r="91" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="24"/>
+      <c r="B91" s="23">
+        <v>68</v>
+      </c>
+      <c r="C91" s="5">
+        <v>500</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="23">
+        <v>1</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1</v>
+      </c>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L91" s="23">
+        <v>1</v>
+      </c>
+      <c r="M91" s="23">
+        <v>2</v>
+      </c>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+    </row>
+    <row r="92" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="24"/>
+      <c r="B92" s="23">
+        <v>69</v>
+      </c>
+      <c r="C92" s="5">
+        <v>500</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="23">
+        <v>1</v>
+      </c>
+      <c r="G92" s="23"/>
+      <c r="H92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L92" s="23">
+        <v>1</v>
+      </c>
+      <c r="M92" s="23">
+        <v>2</v>
+      </c>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+    </row>
+    <row r="93" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="25">
+        <v>23</v>
+      </c>
+      <c r="B93" s="26"/>
+      <c r="C93" s="5">
+        <v>500</v>
+      </c>
+      <c r="D93" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="23">
+        <v>1</v>
+      </c>
+      <c r="G93" s="23"/>
+      <c r="H93" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L93" s="23">
+        <v>1</v>
+      </c>
+      <c r="M93" s="23">
+        <v>2</v>
+      </c>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:M65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9783,19 +9960,213 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R66">
-        <v>1.857</v>
-      </c>
-      <c r="S66">
-        <v>2016.9559999999999</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28">
+        <v>49</v>
+      </c>
+      <c r="C66" s="5">
+        <v>500</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="23">
+        <v>1</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L66" s="23">
+        <v>1</v>
+      </c>
+      <c r="M66" s="23">
+        <v>2</v>
+      </c>
+      <c r="N66" s="21">
+        <v>6</v>
+      </c>
+      <c r="O66" s="21">
+        <v>7</v>
+      </c>
+      <c r="P66" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+    </row>
+    <row r="67" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28">
+        <v>50</v>
+      </c>
+      <c r="C67" s="5">
+        <v>500</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="23">
+        <v>1</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L67" s="23">
+        <v>1</v>
+      </c>
+      <c r="M67" s="23">
+        <v>2</v>
+      </c>
+      <c r="N67" s="21">
+        <v>6</v>
+      </c>
+      <c r="O67" s="21">
+        <v>7</v>
+      </c>
+      <c r="P67" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+    </row>
+    <row r="68" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="27"/>
+      <c r="B68" s="28">
+        <v>51</v>
+      </c>
+      <c r="C68" s="5">
+        <v>500</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="23">
+        <v>1</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L68" s="23">
+        <v>1</v>
+      </c>
+      <c r="M68" s="23">
+        <v>2</v>
+      </c>
+      <c r="N68" s="21">
+        <v>6</v>
+      </c>
+      <c r="O68" s="21">
+        <v>7</v>
+      </c>
+      <c r="P68" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+    </row>
+    <row r="69" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="29">
+        <v>17</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="5">
+        <v>500</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="23">
+        <v>1</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L69" s="23">
+        <v>1</v>
+      </c>
+      <c r="M69" s="23">
+        <v>2</v>
+      </c>
+      <c r="N69" s="21">
+        <v>6</v>
+      </c>
+      <c r="O69" s="21">
+        <v>7</v>
+      </c>
+      <c r="P69" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
